--- a/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-04-29.xlsx
+++ b/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-04-29.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\BBG\RMS-RA Data check\RMS-RA部门销售数据核对\表格\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="8505" yWindow="105" windowWidth="10095" windowHeight="5280"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="RA" sheetId="3" r:id="rId2"/>
     <sheet name="RMS" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -317,7 +312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -328,7 +323,7 @@
     <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="89" x14ac:knownFonts="1">
+  <fonts count="89">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2365,7 +2360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2446,17 +2441,11 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="32" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2470,120 +2459,122 @@
     <xf numFmtId="49" fontId="32" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="341" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="33" borderId="15" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="341" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="33" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="33" borderId="12" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="33" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="33" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="33" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="33" borderId="16" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="32" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="32" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="32" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="33" borderId="17" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="33" borderId="15" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="33" borderId="14" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="33" borderId="13" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="15" xfId="341" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="13" xfId="341" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="341" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="33" borderId="13" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="341">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="341" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="341" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="341" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="341" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="341" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="33" borderId="10" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="33" borderId="12" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="10" xfId="341" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="12" xfId="341" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="33" fillId="34" borderId="10" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="32" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="33" fillId="34" borderId="10" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="33" fillId="34" borderId="12" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="32" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="32" fillId="35" borderId="10" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="32" fillId="35" borderId="10" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="32" fillId="35" borderId="12" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="10" xfId="341" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="12" xfId="341" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="35" borderId="13" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="13" xfId="341" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="32" fillId="35" borderId="13" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="32" fillId="35" borderId="20" xfId="341" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="32" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="355">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="192"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="196"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="200"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 4 2" xfId="204"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="208"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="212"/>
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 1 10" xfId="287"/>
     <cellStyle name="20% - 着色 1 11" xfId="301"/>
     <cellStyle name="20% - 着色 1 12" xfId="315"/>
@@ -2597,7 +2588,6 @@
     <cellStyle name="20% - 着色 1 7" xfId="245"/>
     <cellStyle name="20% - 着色 1 8" xfId="259"/>
     <cellStyle name="20% - 着色 1 9" xfId="273"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2 10" xfId="289"/>
     <cellStyle name="20% - 着色 2 11" xfId="303"/>
     <cellStyle name="20% - 着色 2 12" xfId="317"/>
@@ -2611,7 +2601,6 @@
     <cellStyle name="20% - 着色 2 7" xfId="247"/>
     <cellStyle name="20% - 着色 2 8" xfId="261"/>
     <cellStyle name="20% - 着色 2 9" xfId="275"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3 10" xfId="291"/>
     <cellStyle name="20% - 着色 3 11" xfId="305"/>
     <cellStyle name="20% - 着色 3 12" xfId="319"/>
@@ -2625,7 +2614,6 @@
     <cellStyle name="20% - 着色 3 7" xfId="249"/>
     <cellStyle name="20% - 着色 3 8" xfId="263"/>
     <cellStyle name="20% - 着色 3 9" xfId="277"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 着色 4 10" xfId="293"/>
     <cellStyle name="20% - 着色 4 11" xfId="307"/>
     <cellStyle name="20% - 着色 4 12" xfId="321"/>
@@ -2639,7 +2627,6 @@
     <cellStyle name="20% - 着色 4 7" xfId="251"/>
     <cellStyle name="20% - 着色 4 8" xfId="265"/>
     <cellStyle name="20% - 着色 4 9" xfId="279"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 着色 5 10" xfId="295"/>
     <cellStyle name="20% - 着色 5 11" xfId="309"/>
     <cellStyle name="20% - 着色 5 12" xfId="323"/>
@@ -2653,7 +2640,6 @@
     <cellStyle name="20% - 着色 5 7" xfId="253"/>
     <cellStyle name="20% - 着色 5 8" xfId="267"/>
     <cellStyle name="20% - 着色 5 9" xfId="281"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - 着色 6 10" xfId="297"/>
     <cellStyle name="20% - 着色 6 11" xfId="311"/>
     <cellStyle name="20% - 着色 6 12" xfId="325"/>
@@ -2667,13 +2653,18 @@
     <cellStyle name="20% - 着色 6 7" xfId="255"/>
     <cellStyle name="20% - 着色 6 8" xfId="269"/>
     <cellStyle name="20% - 着色 6 9" xfId="283"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="193"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="197"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="205"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="213"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - 着色 1 10" xfId="288"/>
     <cellStyle name="40% - 着色 1 11" xfId="302"/>
     <cellStyle name="40% - 着色 1 12" xfId="316"/>
@@ -2687,7 +2678,6 @@
     <cellStyle name="40% - 着色 1 7" xfId="246"/>
     <cellStyle name="40% - 着色 1 8" xfId="260"/>
     <cellStyle name="40% - 着色 1 9" xfId="274"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 着色 2 10" xfId="290"/>
     <cellStyle name="40% - 着色 2 11" xfId="304"/>
     <cellStyle name="40% - 着色 2 12" xfId="318"/>
@@ -2701,7 +2691,6 @@
     <cellStyle name="40% - 着色 2 7" xfId="248"/>
     <cellStyle name="40% - 着色 2 8" xfId="262"/>
     <cellStyle name="40% - 着色 2 9" xfId="276"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 着色 3 10" xfId="292"/>
     <cellStyle name="40% - 着色 3 11" xfId="306"/>
     <cellStyle name="40% - 着色 3 12" xfId="320"/>
@@ -2715,7 +2704,6 @@
     <cellStyle name="40% - 着色 3 7" xfId="250"/>
     <cellStyle name="40% - 着色 3 8" xfId="264"/>
     <cellStyle name="40% - 着色 3 9" xfId="278"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 着色 4 10" xfId="294"/>
     <cellStyle name="40% - 着色 4 11" xfId="308"/>
     <cellStyle name="40% - 着色 4 12" xfId="322"/>
@@ -2729,7 +2717,6 @@
     <cellStyle name="40% - 着色 4 7" xfId="252"/>
     <cellStyle name="40% - 着色 4 8" xfId="266"/>
     <cellStyle name="40% - 着色 4 9" xfId="280"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 着色 5 10" xfId="296"/>
     <cellStyle name="40% - 着色 5 11" xfId="310"/>
     <cellStyle name="40% - 着色 5 12" xfId="324"/>
@@ -2743,7 +2730,6 @@
     <cellStyle name="40% - 着色 5 7" xfId="254"/>
     <cellStyle name="40% - 着色 5 8" xfId="268"/>
     <cellStyle name="40% - 着色 5 9" xfId="282"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - 着色 6 10" xfId="298"/>
     <cellStyle name="40% - 着色 6 11" xfId="312"/>
     <cellStyle name="40% - 着色 6 12" xfId="326"/>
@@ -2757,28 +2743,28 @@
     <cellStyle name="40% - 着色 6 7" xfId="256"/>
     <cellStyle name="40% - 着色 6 8" xfId="270"/>
     <cellStyle name="40% - 着色 6 9" xfId="284"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="194"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 2 2" xfId="198"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="202"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 4 2" xfId="206"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 5 2" xfId="210"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="214"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 着色 1 2" xfId="86"/>
     <cellStyle name="60% - 着色 1 3" xfId="152"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - 着色 2 2" xfId="90"/>
     <cellStyle name="60% - 着色 2 3" xfId="156"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - 着色 3 2" xfId="94"/>
     <cellStyle name="60% - 着色 3 3" xfId="160"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 着色 4 2" xfId="98"/>
     <cellStyle name="60% - 着色 4 3" xfId="164"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 着色 5 2" xfId="102"/>
     <cellStyle name="60% - 着色 5 3" xfId="168"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - 着色 6 2" xfId="106"/>
     <cellStyle name="60% - 着色 6 3" xfId="172"/>
     <cellStyle name="OBI_ColHeader" xfId="109"/>
@@ -2866,11 +2852,17 @@
     <cellStyle name="千位分隔 2" xfId="63"/>
     <cellStyle name="千位分隔[0]" xfId="112" builtinId="6" customBuiltin="1"/>
     <cellStyle name="千位分隔[0] 2" xfId="64"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 1 2" xfId="191"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 2 2" xfId="195"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 3 2" xfId="199"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 4 2" xfId="203"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 5 2" xfId="207"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 6 2" xfId="211"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="适中 2" xfId="74"/>
@@ -2884,22 +2876,16 @@
     <cellStyle name="已访问的超链接" xfId="43" builtinId="9" customBuiltin="1"/>
     <cellStyle name="已访问的超链接 2" xfId="108"/>
     <cellStyle name="已访问的超链接 3" xfId="174"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="着色 1 2" xfId="83"/>
     <cellStyle name="着色 1 3" xfId="149"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="着色 2 2" xfId="87"/>
     <cellStyle name="着色 2 3" xfId="153"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="着色 3 2" xfId="91"/>
     <cellStyle name="着色 3 3" xfId="157"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="着色 4 2" xfId="95"/>
     <cellStyle name="着色 4 3" xfId="161"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="着色 5 2" xfId="99"/>
     <cellStyle name="着色 5 3" xfId="165"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="着色 6 2" xfId="103"/>
     <cellStyle name="着色 6 3" xfId="169"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -21258,7 +21244,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21278,7 +21264,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21315,7 +21301,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21335,7 +21321,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21370,7 +21356,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21390,7 +21376,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21427,7 +21413,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21447,7 +21433,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21482,7 +21468,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21502,7 +21488,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21539,7 +21525,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21559,7 +21545,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21594,7 +21580,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21614,7 +21600,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21651,7 +21637,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21671,7 +21657,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21706,7 +21692,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21726,7 +21712,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21763,7 +21749,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21783,7 +21769,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21818,7 +21804,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21838,7 +21824,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21875,7 +21861,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21895,7 +21881,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21930,7 +21916,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21950,7 +21936,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21987,7 +21973,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22007,7 +21993,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22042,7 +22028,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22062,7 +22048,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22099,7 +22085,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22119,7 +22105,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22154,7 +22140,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22174,7 +22160,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22211,7 +22197,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22231,7 +22217,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22266,7 +22252,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22286,7 +22272,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22323,7 +22309,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22343,7 +22329,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22378,7 +22364,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22398,7 +22384,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22435,7 +22421,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22455,7 +22441,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44466,7 +44452,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44486,7 +44472,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44523,7 +44509,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44543,7 +44529,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44578,7 +44564,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44598,7 +44584,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44635,7 +44621,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44655,7 +44641,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44690,7 +44676,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44710,7 +44696,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44747,7 +44733,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44767,7 +44753,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44802,7 +44788,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44822,7 +44808,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44859,7 +44845,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44879,7 +44865,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44914,7 +44900,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44934,7 +44920,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44971,7 +44957,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44991,7 +44977,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45026,7 +45012,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45046,7 +45032,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45083,7 +45069,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45103,7 +45089,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45138,7 +45124,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45158,7 +45144,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45195,7 +45181,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45215,7 +45201,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45250,7 +45236,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45270,7 +45256,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45307,7 +45293,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45327,7 +45313,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45362,7 +45348,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45382,7 +45368,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45419,7 +45405,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45439,7 +45425,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45474,7 +45460,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45494,7 +45480,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45531,7 +45517,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45551,7 +45537,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45586,7 +45572,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45606,7 +45592,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45643,7 +45629,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45663,7 +45649,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -53610,6 +53596,88 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId666" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19792950" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1222" name="Picture 1" descr="徽标"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1223" name="Picture 2" descr="cid:7566d42913">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId667" tgtFrame="_blank"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId668" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -53674,7 +53742,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -53706,10 +53774,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -53741,7 +53808,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -53917,18 +53983,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" style="4" customWidth="1"/>
@@ -53943,7 +54009,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
@@ -53973,15 +54039,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="13"/>
       <c r="F2" s="24"/>
       <c r="G2" s="14"/>
@@ -53991,28 +54057,28 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="15">
         <f>SUM(E4:E41)</f>
-        <v>22099063.181700006</v>
+        <v>22277661.471700005</v>
       </c>
       <c r="F3" s="25">
         <f>RA!I7</f>
-        <v>988077.50340000005</v>
+        <v>945880.93339999998</v>
       </c>
       <c r="G3" s="16">
         <f>SUM(G4:G41)</f>
-        <v>21111123.76879999</v>
+        <v>21331918.62879999</v>
       </c>
       <c r="H3" s="27">
         <f>RA!J7</f>
-        <v>4.4708473540973799</v>
+        <v>4.2456069387176898</v>
       </c>
       <c r="I3" s="20">
         <f>SUM(I4:I41)</f>
@@ -54024,25 +54090,25 @@
       </c>
       <c r="K3" s="22">
         <f>E3-I3</f>
-        <v>-178605.34395323694</v>
+        <v>-7.0539532378315926</v>
       </c>
       <c r="L3" s="22">
         <f>G3-J3</f>
-        <v>-220794.83889389783</v>
+        <v>2.110610157251358E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+    <row r="4" spans="1:13">
+      <c r="A4" s="45">
         <f>RA!A8</f>
         <v>42489</v>
       </c>
       <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="15">
         <f>VLOOKUP(C4,RA!B8:D35,3,0)</f>
         <v>497354.26799999998</v>
@@ -54076,15 +54142,15 @@
         <v>-9.1034190263599157E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
+    <row r="5" spans="1:13">
+      <c r="A5" s="45"/>
       <c r="B5" s="12">
         <v>13</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="15">
         <f>VLOOKUP(C5,RA!B8:D36,3,0)</f>
         <v>67336.074800000002</v>
@@ -54119,15 +54185,15 @@
       </c>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+    <row r="6" spans="1:13">
+      <c r="A6" s="45"/>
       <c r="B6" s="12">
         <v>14</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="15">
         <f>VLOOKUP(C6,RA!B10:D37,3,0)</f>
         <v>122984.2847</v>
@@ -54162,15 +54228,15 @@
       </c>
       <c r="M6" s="32"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="45"/>
       <c r="B7" s="12">
         <v>15</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="15">
         <f>VLOOKUP(C7,RA!B10:D38,3,0)</f>
         <v>42709.038800000002</v>
@@ -54205,15 +54271,15 @@
       </c>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="45"/>
       <c r="B8" s="12">
         <v>16</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="42"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="15">
         <f>VLOOKUP(C8,RA!B12:D38,3,0)</f>
         <v>143449.56460000001</v>
@@ -54248,15 +54314,15 @@
       </c>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:13">
+      <c r="A9" s="45"/>
       <c r="B9" s="12">
         <v>17</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="15">
         <f>VLOOKUP(C9,RA!B12:D39,3,0)</f>
         <v>204289.20060000001</v>
@@ -54291,15 +54357,15 @@
       </c>
       <c r="M9" s="32"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:13">
+      <c r="A10" s="45"/>
       <c r="B10" s="12">
         <v>18</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="15">
         <f>VLOOKUP(C10,RA!B14:D40,3,0)</f>
         <v>130667.10739999999</v>
@@ -54334,15 +54400,15 @@
       </c>
       <c r="M10" s="32"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:13">
+      <c r="A11" s="45"/>
       <c r="B11" s="12">
         <v>19</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="42"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="15">
         <f>VLOOKUP(C11,RA!B14:D41,3,0)</f>
         <v>112371.6395</v>
@@ -54377,15 +54443,15 @@
       </c>
       <c r="M11" s="32"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:13">
+      <c r="A12" s="45"/>
       <c r="B12" s="12">
         <v>21</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="42"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="15">
         <f>VLOOKUP(C12,RA!B16:D42,3,0)</f>
         <v>1041398.9959</v>
@@ -54420,15 +54486,15 @@
       </c>
       <c r="M12" s="32"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:13">
+      <c r="A13" s="45"/>
       <c r="B13" s="12">
         <v>22</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="42"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="15">
         <f>VLOOKUP(C13,RA!B16:D43,3,0)</f>
         <v>692663.11010000005</v>
@@ -54463,15 +54529,15 @@
       </c>
       <c r="M13" s="32"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:13">
+      <c r="A14" s="45"/>
       <c r="B14" s="12">
         <v>23</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="15">
         <f>VLOOKUP(C14,RA!B18:D43,3,0)</f>
         <v>1813601.3744000001</v>
@@ -54506,15 +54572,15 @@
       </c>
       <c r="M14" s="32"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:13">
+      <c r="A15" s="45"/>
       <c r="B15" s="12">
         <v>24</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="15">
         <f>VLOOKUP(C15,RA!B18:D44,3,0)</f>
         <v>598674.91099999996</v>
@@ -54549,15 +54615,15 @@
       </c>
       <c r="M15" s="32"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:13">
+      <c r="A16" s="45"/>
       <c r="B16" s="12">
         <v>25</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="15">
         <f>VLOOKUP(C16,RA!B20:D45,3,0)</f>
         <v>1054753.2278</v>
@@ -54592,15 +54658,15 @@
       </c>
       <c r="M16" s="32"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:13">
+      <c r="A17" s="45"/>
       <c r="B17" s="12">
         <v>26</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="15">
         <f>VLOOKUP(C17,RA!B20:D46,3,0)</f>
         <v>347174.55599999998</v>
@@ -54635,15 +54701,15 @@
       </c>
       <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
+    <row r="18" spans="1:13">
+      <c r="A18" s="45"/>
       <c r="B18" s="12">
         <v>27</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="15">
         <f>VLOOKUP(C18,RA!B22:D47,3,0)</f>
         <v>1260421.2903</v>
@@ -54678,15 +54744,15 @@
       </c>
       <c r="M18" s="32"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:13">
+      <c r="A19" s="45"/>
       <c r="B19" s="12">
         <v>29</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="42"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="15">
         <f>VLOOKUP(C19,RA!B22:D48,3,0)</f>
         <v>2520460.7311999998</v>
@@ -54721,15 +54787,15 @@
       </c>
       <c r="M19" s="32"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:13">
+      <c r="A20" s="45"/>
       <c r="B20" s="12">
         <v>31</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="42"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="15">
         <f>VLOOKUP(C20,RA!B24:D49,3,0)</f>
         <v>252965.8861</v>
@@ -54764,15 +54830,15 @@
       </c>
       <c r="M20" s="32"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:13">
+      <c r="A21" s="45"/>
       <c r="B21" s="12">
         <v>32</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="42"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="15">
         <f>VLOOKUP(C21,RA!B24:D50,3,0)</f>
         <v>235048.02540000001</v>
@@ -54807,15 +54873,15 @@
       </c>
       <c r="M21" s="32"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:13">
+      <c r="A22" s="45"/>
       <c r="B22" s="12">
         <v>33</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="42"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="15">
         <f>VLOOKUP(C22,RA!B26:D51,3,0)</f>
         <v>686102.32109999994</v>
@@ -54850,15 +54916,15 @@
       </c>
       <c r="M22" s="32"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
+    <row r="23" spans="1:13">
+      <c r="A23" s="45"/>
       <c r="B23" s="12">
         <v>34</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="42"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="15">
         <f>VLOOKUP(C23,RA!B26:D52,3,0)</f>
         <v>250206.51310000001</v>
@@ -54893,15 +54959,15 @@
       </c>
       <c r="M23" s="32"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:13">
+      <c r="A24" s="45"/>
       <c r="B24" s="12">
         <v>35</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="15">
         <f>VLOOKUP(C24,RA!B28:D53,3,0)</f>
         <v>880720.22349999996</v>
@@ -54936,15 +55002,15 @@
       </c>
       <c r="M24" s="32"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:13">
+      <c r="A25" s="45"/>
       <c r="B25" s="12">
         <v>36</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="42"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="15">
         <f>VLOOKUP(C25,RA!B28:D54,3,0)</f>
         <v>822742.652</v>
@@ -54979,15 +55045,15 @@
       </c>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
+    <row r="26" spans="1:13">
+      <c r="A26" s="45"/>
       <c r="B26" s="12">
         <v>37</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="15">
         <f>VLOOKUP(C26,RA!B30:D55,3,0)</f>
         <v>1488860.1664</v>
@@ -55022,15 +55088,15 @@
       </c>
       <c r="M26" s="32"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
+    <row r="27" spans="1:13">
+      <c r="A27" s="45"/>
       <c r="B27" s="12">
         <v>38</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="42"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="15">
         <f>VLOOKUP(C27,RA!B30:D56,3,0)</f>
         <v>569044.02819999994</v>
@@ -55065,15 +55131,15 @@
       </c>
       <c r="M27" s="32"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:13">
+      <c r="A28" s="45"/>
       <c r="B28" s="12">
         <v>39</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="42"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="15">
         <f>VLOOKUP(C28,RA!B32:D57,3,0)</f>
         <v>107555.56909999999</v>
@@ -55108,15 +55174,15 @@
       </c>
       <c r="M28" s="32"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
+    <row r="29" spans="1:13">
+      <c r="A29" s="45"/>
       <c r="B29" s="12">
         <v>40</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="42"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="15">
         <f>VLOOKUP(C29,RA!B32:D58,3,0)</f>
         <v>0</v>
@@ -55151,15 +55217,15 @@
       </c>
       <c r="M29" s="32"/>
     </row>
-    <row r="30" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
+    <row r="30" spans="1:13" ht="12" thickBot="1">
+      <c r="A30" s="45"/>
       <c r="B30" s="12">
         <v>42</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="42"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="15">
         <f>VLOOKUP(C30,RA!B34:D60,3,0)</f>
         <v>199201.93919999999</v>
@@ -55194,15 +55260,15 @@
       </c>
       <c r="M30" s="32"/>
     </row>
-    <row r="31" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+    <row r="31" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1">
+      <c r="A31" s="45"/>
       <c r="B31" s="12">
         <v>70</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="49"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="15">
         <f>VLOOKUP(C31,RA!B34:D61,3,0)</f>
         <v>860389.78</v>
@@ -55236,26 +55302,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
+    <row r="32" spans="1:13">
+      <c r="A32" s="45"/>
       <c r="B32" s="12">
         <v>71</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="42"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="15">
         <f>VLOOKUP(C32,RA!B34:D61,3,0)</f>
-        <v>1694587.96</v>
+        <v>1724064.9</v>
       </c>
       <c r="F32" s="25">
         <f>VLOOKUP(C32,RA!B34:I65,8,0)</f>
-        <v>-140105.76</v>
+        <v>-147492.09</v>
       </c>
       <c r="G32" s="16">
         <f t="shared" si="0"/>
-        <v>1834693.72</v>
+        <v>1871556.99</v>
       </c>
       <c r="H32" s="27">
         <f>RA!J34</f>
@@ -55271,34 +55337,34 @@
       </c>
       <c r="K32" s="22">
         <f t="shared" si="1"/>
-        <v>-29476.939999999944</v>
+        <v>0</v>
       </c>
       <c r="L32" s="22">
         <f t="shared" si="2"/>
-        <v>-36863.270000000019</v>
+        <v>0</v>
       </c>
       <c r="M32" s="32"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
+    <row r="33" spans="1:13">
+      <c r="A33" s="45"/>
       <c r="B33" s="12">
         <v>72</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="42"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="15">
         <f>VLOOKUP(C33,RA!B34:D62,3,0)</f>
-        <v>831327.96</v>
+        <v>926164.69</v>
       </c>
       <c r="F33" s="25">
         <f>VLOOKUP(C33,RA!B34:I66,8,0)</f>
-        <v>-95641.63</v>
+        <v>-111564.71</v>
       </c>
       <c r="G33" s="16">
         <f t="shared" si="0"/>
-        <v>926969.59</v>
+        <v>1037729.3999999999</v>
       </c>
       <c r="H33" s="27">
         <f>RA!J35</f>
@@ -55314,34 +55380,34 @@
       </c>
       <c r="K33" s="22">
         <f t="shared" si="1"/>
-        <v>-94836.729999999981</v>
+        <v>0</v>
       </c>
       <c r="L33" s="22">
         <f t="shared" si="2"/>
-        <v>-110759.81000000006</v>
+        <v>0</v>
       </c>
       <c r="M33" s="32"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
+    <row r="34" spans="1:13">
+      <c r="A34" s="45"/>
       <c r="B34" s="12">
         <v>73</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="42"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="15">
         <f>VLOOKUP(C34,RA!B34:D63,3,0)</f>
-        <v>553370.74</v>
+        <v>582210.93000000005</v>
       </c>
       <c r="F34" s="25">
         <f>VLOOKUP(C34,RA!B34:I67,8,0)</f>
-        <v>-144910.94</v>
+        <v>-152044.26999999999</v>
       </c>
       <c r="G34" s="16">
         <f t="shared" si="0"/>
-        <v>698281.67999999993</v>
+        <v>734255.20000000007</v>
       </c>
       <c r="H34" s="27">
         <f>RA!J34</f>
@@ -55357,23 +55423,23 @@
       </c>
       <c r="K34" s="22">
         <f t="shared" si="1"/>
-        <v>-28840.190000000061</v>
+        <v>0</v>
       </c>
       <c r="L34" s="22">
         <f t="shared" si="2"/>
-        <v>-35973.520000000019</v>
+        <v>0</v>
       </c>
       <c r="M34" s="32"/>
     </row>
-    <row r="35" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
+    <row r="35" spans="1:13" s="35" customFormat="1">
+      <c r="A35" s="45"/>
       <c r="B35" s="12">
         <v>74</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="42"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="15">
         <f>VLOOKUP(C35,RA!B35:D64,3,0)</f>
         <v>0</v>
@@ -55407,15 +55473,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
+    <row r="36" spans="1:13" ht="11.25" customHeight="1">
+      <c r="A36" s="45"/>
       <c r="B36" s="12">
         <v>75</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="42"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="15">
         <f>VLOOKUP(C36,RA!B8:D64,3,0)</f>
         <v>112939.658</v>
@@ -55450,15 +55516,15 @@
       </c>
       <c r="M36" s="32"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
+    <row r="37" spans="1:13">
+      <c r="A37" s="45"/>
       <c r="B37" s="12">
         <v>76</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="42"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="15">
         <f>VLOOKUP(C37,RA!B8:D65,3,0)</f>
         <v>1372948.6580999999</v>
@@ -55493,30 +55559,30 @@
       </c>
       <c r="M37" s="32"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
+    <row r="38" spans="1:13">
+      <c r="A38" s="45"/>
       <c r="B38" s="12">
         <v>77</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="42"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="15">
         <f>VLOOKUP(C38,RA!B9:D66,3,0)</f>
-        <v>381827.31</v>
+        <v>407271.74</v>
       </c>
       <c r="F38" s="25">
         <f>VLOOKUP(C38,RA!B9:I70,8,0)</f>
-        <v>-96051.19</v>
+        <v>-107805.02</v>
       </c>
       <c r="G38" s="16">
         <f t="shared" si="0"/>
-        <v>477878.5</v>
+        <v>515076.76</v>
       </c>
       <c r="H38" s="27">
         <f>RA!J37</f>
-        <v>-8.2678363889709203</v>
+        <v>-8.5549035886062104</v>
       </c>
       <c r="I38" s="20">
         <f>VLOOKUP(B38,RMS!B:D,3,FALSE)</f>
@@ -55528,23 +55594,23 @@
       </c>
       <c r="K38" s="22">
         <f t="shared" si="1"/>
-        <v>-25444.429999999993</v>
+        <v>0</v>
       </c>
       <c r="L38" s="22">
         <f t="shared" si="2"/>
-        <v>-37198.260000000009</v>
+        <v>0</v>
       </c>
       <c r="M38" s="32"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
+    <row r="39" spans="1:13">
+      <c r="A39" s="45"/>
       <c r="B39" s="12">
         <v>78</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="42"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="15">
         <f>VLOOKUP(C39,RA!B10:D67,3,0)</f>
         <v>142804.16</v>
@@ -55559,7 +55625,7 @@
       </c>
       <c r="H39" s="27">
         <f>RA!J38</f>
-        <v>-11.504681016623101</v>
+        <v>-12.045882466108701</v>
       </c>
       <c r="I39" s="20">
         <f>VLOOKUP(B39,RMS!B:D,3,FALSE)</f>
@@ -55579,15 +55645,15 @@
       </c>
       <c r="M39" s="32"/>
     </row>
-    <row r="40" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
+    <row r="40" spans="1:13" s="36" customFormat="1">
+      <c r="A40" s="45"/>
       <c r="B40" s="12">
         <v>9101</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="44"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="15">
         <f>VLOOKUP(C40,RA!B11:D68,3,0)</f>
         <v>0</v>
@@ -55602,7 +55668,7 @@
       </c>
       <c r="H40" s="27">
         <f>RA!J39</f>
-        <v>-26.186953795207899</v>
+        <v>-26.114980356002601</v>
       </c>
       <c r="I40" s="20">
         <f>VLOOKUP(B40,RMS!B:D,3,FALSE)</f>
@@ -55621,15 +55687,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
+    <row r="41" spans="1:13">
+      <c r="A41" s="45"/>
       <c r="B41" s="12">
         <v>99</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="42"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="15">
         <f>VLOOKUP(C41,RA!B8:D68,3,0)</f>
         <v>6110.2564000000002</v>
@@ -55644,7 +55710,7 @@
       </c>
       <c r="H41" s="27">
         <f>RA!J39</f>
-        <v>-26.186953795207899</v>
+        <v>-26.114980356002601</v>
       </c>
       <c r="I41" s="20">
         <f>VLOOKUP(B41,RMS!B:D,3,FALSE)</f>
@@ -55666,6 +55732,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -55682,31 +55773,6 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -55715,15 +55781,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W46"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="41" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="41"/>
@@ -55744,2524 +55810,2527 @@
     <col min="23" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="64" t="s">
+    <row r="1" spans="1:23" ht="12.75">
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="61"/>
+      <c r="W1" s="52"/>
     </row>
-    <row r="2" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="61"/>
+    <row r="2" spans="1:23" ht="12.75">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="52"/>
     </row>
-    <row r="3" spans="1:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="65" t="s">
+    <row r="3" spans="1:23" ht="23.25" thickBot="1">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="61"/>
+      <c r="W3" s="52"/>
     </row>
-    <row r="4" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="61"/>
+    <row r="4" spans="1:23" ht="12.75" thickTop="1" thickBot="1">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="W4" s="52"/>
     </row>
-    <row r="5" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69" t="s">
+    <row r="5" spans="1:23" ht="22.5" thickTop="1" thickBot="1">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="69" t="s">
+      <c r="M5" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="69" t="s">
+      <c r="Q5" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="69" t="s">
+      <c r="R5" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="69" t="s">
+      <c r="S5" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="69" t="s">
+      <c r="T5" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="70" t="s">
+      <c r="U5" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
     </row>
-    <row r="6" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+    <row r="6" spans="1:23" ht="12" thickBot="1">
+      <c r="A6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="63"/>
     </row>
-    <row r="7" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+    <row r="7" spans="1:23" ht="12" thickBot="1">
+      <c r="A7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="73">
-        <v>22100452.669100001</v>
-      </c>
-      <c r="E7" s="73">
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67">
+        <v>22279050.959100001</v>
+      </c>
+      <c r="E7" s="67">
         <v>19442803.381700002</v>
       </c>
-      <c r="F7" s="74">
-        <v>113.669064255937</v>
-      </c>
-      <c r="G7" s="73">
+      <c r="F7" s="68">
+        <v>114.58764727348699</v>
+      </c>
+      <c r="G7" s="67">
         <v>17189214.228</v>
       </c>
-      <c r="H7" s="74">
-        <v>28.571628557051401</v>
-      </c>
-      <c r="I7" s="73">
-        <v>988077.50340000005</v>
-      </c>
-      <c r="J7" s="74">
-        <v>4.4708473540973799</v>
-      </c>
-      <c r="K7" s="73">
+      <c r="H7" s="68">
+        <v>29.610642252680801</v>
+      </c>
+      <c r="I7" s="67">
+        <v>945880.93339999998</v>
+      </c>
+      <c r="J7" s="68">
+        <v>4.2456069387176898</v>
+      </c>
+      <c r="K7" s="67">
         <v>978815.83790000004</v>
       </c>
-      <c r="L7" s="74">
+      <c r="L7" s="68">
         <v>5.6943605735367404</v>
       </c>
-      <c r="M7" s="74">
-        <v>9.4621124233850006E-3</v>
-      </c>
-      <c r="N7" s="73">
-        <v>490254526.59039998</v>
-      </c>
-      <c r="O7" s="73">
-        <v>2823039788.7161002</v>
-      </c>
-      <c r="P7" s="73">
+      <c r="M7" s="68">
+        <v>-3.3647702892365003E-2</v>
+      </c>
+      <c r="N7" s="67">
+        <v>490433124.8804</v>
+      </c>
+      <c r="O7" s="67">
+        <v>2823218387.0061002</v>
+      </c>
+      <c r="P7" s="67">
         <v>909989</v>
       </c>
-      <c r="Q7" s="73">
+      <c r="Q7" s="67">
         <v>763709</v>
       </c>
-      <c r="R7" s="74">
+      <c r="R7" s="68">
         <v>19.1538923857124</v>
       </c>
-      <c r="S7" s="73">
-        <v>24.2865052974267</v>
-      </c>
-      <c r="T7" s="73">
+      <c r="S7" s="67">
+        <v>24.4827695269943</v>
+      </c>
+      <c r="T7" s="67">
         <v>24.3012608541997</v>
       </c>
-      <c r="U7" s="75">
-        <v>-6.0756196053433999E-2</v>
-      </c>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
+      <c r="U7" s="69">
+        <v>0.74137312200096495</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53">
+    <row r="8" spans="1:23" ht="12" thickBot="1">
+      <c r="A8" s="70">
         <v>42489</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="76">
+      <c r="C8" s="47"/>
+      <c r="D8" s="71">
         <v>497354.26799999998</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="71">
         <v>791211.37139999995</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="72">
         <v>62.859848325986803</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="71">
         <v>732509.22010000004</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="72">
         <v>-32.102661051542398</v>
       </c>
-      <c r="I8" s="76">
+      <c r="I8" s="71">
         <v>110939.7527</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="72">
         <v>22.3059818398904</v>
       </c>
-      <c r="K8" s="76">
+      <c r="K8" s="71">
         <v>92563.225000000006</v>
       </c>
-      <c r="L8" s="77">
+      <c r="L8" s="72">
         <v>12.636458690221501</v>
       </c>
-      <c r="M8" s="77">
+      <c r="M8" s="72">
         <v>0.198529466750969</v>
       </c>
-      <c r="N8" s="76">
+      <c r="N8" s="71">
         <v>17144973.138300002</v>
       </c>
-      <c r="O8" s="76">
+      <c r="O8" s="71">
         <v>106530968.9351</v>
       </c>
-      <c r="P8" s="76">
+      <c r="P8" s="71">
         <v>23926</v>
       </c>
-      <c r="Q8" s="76">
+      <c r="Q8" s="71">
         <v>21597</v>
       </c>
-      <c r="R8" s="77">
+      <c r="R8" s="72">
         <v>10.783905172014601</v>
       </c>
-      <c r="S8" s="76">
+      <c r="S8" s="71">
         <v>20.787188330686298</v>
       </c>
-      <c r="T8" s="76">
+      <c r="T8" s="71">
         <v>21.493310316247602</v>
       </c>
-      <c r="U8" s="78">
+      <c r="U8" s="73">
         <v>-3.3969095499027002</v>
       </c>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
     </row>
-    <row r="9" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="62" t="s">
+    <row r="9" spans="1:23" ht="12" thickBot="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="76">
+      <c r="C9" s="47"/>
+      <c r="D9" s="71">
         <v>67336.074800000002</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="71">
         <v>102010.841</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="72">
         <v>66.008743913796394</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="71">
         <v>61430.710700000003</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="72">
         <v>9.6130486408323197</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="71">
         <v>14741.995000000001</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="72">
         <v>21.893160603415499</v>
       </c>
-      <c r="K9" s="76">
+      <c r="K9" s="71">
         <v>11858.3585</v>
       </c>
-      <c r="L9" s="77">
+      <c r="L9" s="72">
         <v>19.303632279155799</v>
       </c>
-      <c r="M9" s="77">
+      <c r="M9" s="72">
         <v>0.243173327910435</v>
       </c>
-      <c r="N9" s="76">
+      <c r="N9" s="71">
         <v>2660291.0309000001</v>
       </c>
-      <c r="O9" s="76">
+      <c r="O9" s="71">
         <v>14617881.9849</v>
       </c>
-      <c r="P9" s="76">
+      <c r="P9" s="71">
         <v>3698</v>
       </c>
-      <c r="Q9" s="76">
+      <c r="Q9" s="71">
         <v>2953</v>
       </c>
-      <c r="R9" s="77">
+      <c r="R9" s="72">
         <v>25.2285811039621</v>
       </c>
-      <c r="S9" s="76">
+      <c r="S9" s="71">
         <v>18.208781719848599</v>
       </c>
-      <c r="T9" s="76">
+      <c r="T9" s="71">
         <v>16.291093498137499</v>
       </c>
-      <c r="U9" s="78">
+      <c r="U9" s="73">
         <v>10.531666814483801</v>
       </c>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
     </row>
-    <row r="10" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="62" t="s">
+    <row r="10" spans="1:23" ht="12" thickBot="1">
+      <c r="A10" s="74"/>
+      <c r="B10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="76">
+      <c r="C10" s="47"/>
+      <c r="D10" s="71">
         <v>122984.2847</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="71">
         <v>165297.02530000001</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="72">
         <v>74.401995121687193</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="71">
         <v>128743.626</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="72">
         <v>-4.4734962645840204</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="71">
         <v>32735.857499999998</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="72">
         <v>26.6179191754896</v>
       </c>
-      <c r="K10" s="76">
+      <c r="K10" s="71">
         <v>20664.058300000001</v>
       </c>
-      <c r="L10" s="77">
+      <c r="L10" s="72">
         <v>16.050548630656099</v>
       </c>
-      <c r="M10" s="77">
+      <c r="M10" s="72">
         <v>0.584193047887404</v>
       </c>
-      <c r="N10" s="76">
+      <c r="N10" s="71">
         <v>3964270.3018</v>
       </c>
-      <c r="O10" s="76">
+      <c r="O10" s="71">
         <v>25160375.8961</v>
       </c>
-      <c r="P10" s="76">
+      <c r="P10" s="71">
         <v>95321</v>
       </c>
-      <c r="Q10" s="76">
+      <c r="Q10" s="71">
         <v>78017</v>
       </c>
-      <c r="R10" s="77">
+      <c r="R10" s="72">
         <v>22.179781329710199</v>
       </c>
-      <c r="S10" s="76">
+      <c r="S10" s="71">
         <v>1.29021185992593</v>
       </c>
-      <c r="T10" s="76">
+      <c r="T10" s="71">
         <v>1.2693363587423301</v>
       </c>
-      <c r="U10" s="78">
+      <c r="U10" s="73">
         <v>1.6179901791328599</v>
       </c>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
     </row>
-    <row r="11" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="62" t="s">
+    <row r="11" spans="1:23" ht="12" thickBot="1">
+      <c r="A11" s="74"/>
+      <c r="B11" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="76">
+      <c r="C11" s="47"/>
+      <c r="D11" s="71">
         <v>42709.038800000002</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="71">
         <v>91076.065000000002</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="72">
         <v>46.893812111886902</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="71">
         <v>56833.7857</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="72">
         <v>-24.8527292807102</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="71">
         <v>9622.4992999999995</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="72">
         <v>22.5303579063456</v>
       </c>
-      <c r="K11" s="76">
+      <c r="K11" s="71">
         <v>8861.2764999999999</v>
       </c>
-      <c r="L11" s="77">
+      <c r="L11" s="72">
         <v>15.5915647547652</v>
       </c>
-      <c r="M11" s="77">
+      <c r="M11" s="72">
         <v>8.5904417947007997E-2</v>
       </c>
-      <c r="N11" s="76">
+      <c r="N11" s="71">
         <v>1417164.4251999999</v>
       </c>
-      <c r="O11" s="76">
+      <c r="O11" s="71">
         <v>8458814.5960000008</v>
       </c>
-      <c r="P11" s="76">
+      <c r="P11" s="71">
         <v>2008</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="71">
         <v>1858</v>
       </c>
-      <c r="R11" s="77">
+      <c r="R11" s="72">
         <v>8.0731969860064599</v>
       </c>
-      <c r="S11" s="76">
+      <c r="S11" s="71">
         <v>21.269441633466101</v>
       </c>
-      <c r="T11" s="76">
+      <c r="T11" s="71">
         <v>22.486771959095801</v>
       </c>
-      <c r="U11" s="78">
+      <c r="U11" s="73">
         <v>-5.7233769772041203</v>
       </c>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
     </row>
-    <row r="12" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="62" t="s">
+    <row r="12" spans="1:23" ht="12" thickBot="1">
+      <c r="A12" s="74"/>
+      <c r="B12" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="76">
+      <c r="C12" s="47"/>
+      <c r="D12" s="71">
         <v>143449.56460000001</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="71">
         <v>298928.69140000001</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="72">
         <v>47.987887655804997</v>
       </c>
-      <c r="G12" s="76">
+      <c r="G12" s="71">
         <v>277508.11070000002</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="72">
         <v>-48.307974048702299</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="71">
         <v>23818.777099999999</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="72">
         <v>16.604286786381799</v>
       </c>
-      <c r="K12" s="76">
+      <c r="K12" s="71">
         <v>25614.5713</v>
       </c>
-      <c r="L12" s="77">
+      <c r="L12" s="72">
         <v>9.2302063660008198</v>
       </c>
-      <c r="M12" s="77">
+      <c r="M12" s="72">
         <v>-7.0108305892278996E-2</v>
       </c>
-      <c r="N12" s="76">
+      <c r="N12" s="71">
         <v>3780194.5529</v>
       </c>
-      <c r="O12" s="76">
+      <c r="O12" s="71">
         <v>27454234.259500001</v>
       </c>
-      <c r="P12" s="76">
+      <c r="P12" s="71">
         <v>1598</v>
       </c>
-      <c r="Q12" s="76">
+      <c r="Q12" s="71">
         <v>1589</v>
       </c>
-      <c r="R12" s="77">
+      <c r="R12" s="72">
         <v>0.56639395846445095</v>
       </c>
-      <c r="S12" s="76">
+      <c r="S12" s="71">
         <v>89.7681881101377</v>
       </c>
-      <c r="T12" s="76">
+      <c r="T12" s="71">
         <v>85.844055947136596</v>
       </c>
-      <c r="U12" s="78">
+      <c r="U12" s="73">
         <v>4.3714062248717296</v>
       </c>
-      <c r="V12" s="63"/>
-      <c r="W12" s="63"/>
     </row>
-    <row r="13" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="62" t="s">
+    <row r="13" spans="1:23" ht="12" thickBot="1">
+      <c r="A13" s="74"/>
+      <c r="B13" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="76">
+      <c r="C13" s="47"/>
+      <c r="D13" s="71">
         <v>204289.20060000001</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="71">
         <v>308721.35369999998</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="72">
         <v>66.172682307722098</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="71">
         <v>317302.32799999998</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="72">
         <v>-35.6168604599712</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="71">
         <v>55511.072999999997</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="72">
         <v>27.172788790089399</v>
       </c>
-      <c r="K13" s="76">
+      <c r="K13" s="71">
         <v>32164.8187</v>
       </c>
-      <c r="L13" s="77">
+      <c r="L13" s="72">
         <v>10.136962720298699</v>
       </c>
-      <c r="M13" s="77">
+      <c r="M13" s="72">
         <v>0.72583198797884096</v>
       </c>
-      <c r="N13" s="76">
+      <c r="N13" s="71">
         <v>6223814.2329000002</v>
       </c>
-      <c r="O13" s="76">
+      <c r="O13" s="71">
         <v>45731329.941799998</v>
       </c>
-      <c r="P13" s="76">
+      <c r="P13" s="71">
         <v>11553</v>
       </c>
-      <c r="Q13" s="76">
+      <c r="Q13" s="71">
         <v>9760</v>
       </c>
-      <c r="R13" s="77">
+      <c r="R13" s="72">
         <v>18.3709016393443</v>
       </c>
-      <c r="S13" s="76">
+      <c r="S13" s="71">
         <v>17.682783744481998</v>
       </c>
-      <c r="T13" s="76">
+      <c r="T13" s="71">
         <v>18.940733411885201</v>
       </c>
-      <c r="U13" s="78">
+      <c r="U13" s="73">
         <v>-7.11397982116842</v>
       </c>
-      <c r="V13" s="63"/>
-      <c r="W13" s="63"/>
     </row>
-    <row r="14" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="62" t="s">
+    <row r="14" spans="1:23" ht="12" thickBot="1">
+      <c r="A14" s="74"/>
+      <c r="B14" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="76">
+      <c r="C14" s="47"/>
+      <c r="D14" s="71">
         <v>130667.10739999999</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="71">
         <v>174416.6189</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="72">
         <v>74.916661166856301</v>
       </c>
-      <c r="G14" s="76">
+      <c r="G14" s="71">
         <v>181963.85060000001</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="72">
         <v>-28.190623044553199</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="71">
         <v>21933.055400000001</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="72">
         <v>16.785444965011902</v>
       </c>
-      <c r="K14" s="76">
+      <c r="K14" s="71">
         <v>33440.952599999997</v>
       </c>
-      <c r="L14" s="77">
+      <c r="L14" s="72">
         <v>18.377800035409901</v>
       </c>
-      <c r="M14" s="77">
+      <c r="M14" s="72">
         <v>-0.34412587875860901</v>
       </c>
-      <c r="N14" s="76">
+      <c r="N14" s="71">
         <v>3695528.5027999999</v>
       </c>
-      <c r="O14" s="76">
+      <c r="O14" s="71">
         <v>20229672.486299999</v>
       </c>
-      <c r="P14" s="76">
+      <c r="P14" s="71">
         <v>2730</v>
       </c>
-      <c r="Q14" s="76">
+      <c r="Q14" s="71">
         <v>2126</v>
       </c>
-      <c r="R14" s="77">
+      <c r="R14" s="72">
         <v>28.410159924741301</v>
       </c>
-      <c r="S14" s="76">
+      <c r="S14" s="71">
         <v>47.863409304029297</v>
       </c>
-      <c r="T14" s="76">
+      <c r="T14" s="71">
         <v>46.659403480715</v>
       </c>
-      <c r="U14" s="78">
+      <c r="U14" s="73">
         <v>2.5155036818762202</v>
       </c>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
     </row>
-    <row r="15" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="62" t="s">
+    <row r="15" spans="1:23" ht="12" thickBot="1">
+      <c r="A15" s="74"/>
+      <c r="B15" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="76">
+      <c r="C15" s="47"/>
+      <c r="D15" s="71">
         <v>112371.6395</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="71">
         <v>202023.353</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="72">
         <v>55.623093979635101</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="71">
         <v>241117.85159999999</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="72">
         <v>-53.395553769939099</v>
       </c>
-      <c r="I15" s="76">
+      <c r="I15" s="71">
         <v>19256.746200000001</v>
       </c>
-      <c r="J15" s="77">
+      <c r="J15" s="72">
         <v>17.136660358150198</v>
       </c>
-      <c r="K15" s="76">
+      <c r="K15" s="71">
         <v>10606.4648</v>
       </c>
-      <c r="L15" s="77">
+      <c r="L15" s="72">
         <v>4.3988716428991301</v>
       </c>
-      <c r="M15" s="77">
+      <c r="M15" s="72">
         <v>0.81556687955066798</v>
       </c>
-      <c r="N15" s="76">
+      <c r="N15" s="71">
         <v>3107222.64</v>
       </c>
-      <c r="O15" s="76">
+      <c r="O15" s="71">
         <v>16431087.510399999</v>
       </c>
-      <c r="P15" s="76">
+      <c r="P15" s="71">
         <v>5217</v>
       </c>
-      <c r="Q15" s="76">
+      <c r="Q15" s="71">
         <v>4235</v>
       </c>
-      <c r="R15" s="77">
+      <c r="R15" s="72">
         <v>23.187721369539599</v>
       </c>
-      <c r="S15" s="76">
+      <c r="S15" s="71">
         <v>21.5395130343109</v>
       </c>
-      <c r="T15" s="76">
+      <c r="T15" s="71">
         <v>23.756581298701299</v>
       </c>
-      <c r="U15" s="78">
+      <c r="U15" s="73">
         <v>-10.293028727524</v>
       </c>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
     </row>
-    <row r="16" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="62" t="s">
+    <row r="16" spans="1:23" ht="12" thickBot="1">
+      <c r="A16" s="74"/>
+      <c r="B16" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="76">
+      <c r="C16" s="47"/>
+      <c r="D16" s="71">
         <v>1041398.9959</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="71">
         <v>1291702.7551</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="72">
         <v>80.622185854157905</v>
       </c>
-      <c r="G16" s="76">
+      <c r="G16" s="71">
         <v>793193.59959999996</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="72">
         <v>31.291906090161</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="71">
         <v>-26466.026099999999</v>
       </c>
-      <c r="J16" s="77">
+      <c r="J16" s="72">
         <v>-2.5413915515760102</v>
       </c>
-      <c r="K16" s="76">
+      <c r="K16" s="71">
         <v>28811.036400000001</v>
       </c>
-      <c r="L16" s="77">
+      <c r="L16" s="72">
         <v>3.6322830157138402</v>
       </c>
-      <c r="M16" s="77">
+      <c r="M16" s="72">
         <v>-1.91860722164094</v>
       </c>
-      <c r="N16" s="76">
+      <c r="N16" s="71">
         <v>25209660.338599999</v>
       </c>
-      <c r="O16" s="76">
+      <c r="O16" s="71">
         <v>136789412.3707</v>
       </c>
-      <c r="P16" s="76">
+      <c r="P16" s="71">
         <v>48173</v>
       </c>
-      <c r="Q16" s="76">
+      <c r="Q16" s="71">
         <v>34883</v>
       </c>
-      <c r="R16" s="77">
+      <c r="R16" s="72">
         <v>38.0987873749391</v>
       </c>
-      <c r="S16" s="76">
+      <c r="S16" s="71">
         <v>21.6178979075416</v>
       </c>
-      <c r="T16" s="76">
+      <c r="T16" s="71">
         <v>20.3201729094401</v>
       </c>
-      <c r="U16" s="78">
+      <c r="U16" s="73">
         <v>6.0030119656024397</v>
       </c>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
     </row>
-    <row r="17" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="62" t="s">
+    <row r="17" spans="1:21" ht="12" thickBot="1">
+      <c r="A17" s="74"/>
+      <c r="B17" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="76">
+      <c r="C17" s="47"/>
+      <c r="D17" s="71">
         <v>692663.11010000005</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="71">
         <v>933284.86930000002</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="72">
         <v>74.217758466343099</v>
       </c>
-      <c r="G17" s="76">
+      <c r="G17" s="71">
         <v>578552.68909999996</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="72">
         <v>19.723427641052101</v>
       </c>
-      <c r="I17" s="76">
+      <c r="I17" s="71">
         <v>46746.162300000004</v>
       </c>
-      <c r="J17" s="77">
+      <c r="J17" s="72">
         <v>6.7487587570891803</v>
       </c>
-      <c r="K17" s="76">
+      <c r="K17" s="71">
         <v>45616.8269</v>
       </c>
-      <c r="L17" s="77">
+      <c r="L17" s="72">
         <v>7.8846452119964701</v>
       </c>
-      <c r="M17" s="77">
+      <c r="M17" s="72">
         <v>2.4756991591627E-2</v>
       </c>
-      <c r="N17" s="76">
+      <c r="N17" s="71">
         <v>23271496.2522</v>
       </c>
-      <c r="O17" s="76">
+      <c r="O17" s="71">
         <v>172845702.76050001</v>
       </c>
-      <c r="P17" s="76">
+      <c r="P17" s="71">
         <v>10935</v>
       </c>
-      <c r="Q17" s="76">
+      <c r="Q17" s="71">
         <v>9388</v>
       </c>
-      <c r="R17" s="77">
+      <c r="R17" s="72">
         <v>16.478483170004299</v>
       </c>
-      <c r="S17" s="76">
+      <c r="S17" s="71">
         <v>63.343677192501197</v>
       </c>
-      <c r="T17" s="76">
+      <c r="T17" s="71">
         <v>51.189356657434999</v>
       </c>
-      <c r="U17" s="78">
+      <c r="U17" s="73">
         <v>19.1878985776737</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="62" t="s">
+    <row r="18" spans="1:21" ht="12" thickBot="1">
+      <c r="A18" s="74"/>
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="76">
+      <c r="C18" s="47"/>
+      <c r="D18" s="71">
         <v>1813601.3744000001</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="71">
         <v>2103747.3612000002</v>
       </c>
-      <c r="F18" s="77">
+      <c r="F18" s="72">
         <v>86.208135437208696</v>
       </c>
-      <c r="G18" s="76">
+      <c r="G18" s="71">
         <v>1370473.912</v>
       </c>
-      <c r="H18" s="77">
+      <c r="H18" s="72">
         <v>32.333885272819401</v>
       </c>
-      <c r="I18" s="76">
+      <c r="I18" s="71">
         <v>244733.60079999999</v>
       </c>
-      <c r="J18" s="77">
+      <c r="J18" s="72">
         <v>13.4943435892006</v>
       </c>
-      <c r="K18" s="76">
+      <c r="K18" s="71">
         <v>170217.1985</v>
       </c>
-      <c r="L18" s="77">
+      <c r="L18" s="72">
         <v>12.4203165787807</v>
       </c>
-      <c r="M18" s="77">
+      <c r="M18" s="72">
         <v>0.43777246339769899</v>
       </c>
-      <c r="N18" s="76">
+      <c r="N18" s="71">
         <v>47498910.321400002</v>
       </c>
-      <c r="O18" s="76">
+      <c r="O18" s="71">
         <v>326778750.3513</v>
       </c>
-      <c r="P18" s="76">
+      <c r="P18" s="71">
         <v>78106</v>
       </c>
-      <c r="Q18" s="76">
+      <c r="Q18" s="71">
         <v>58783</v>
       </c>
-      <c r="R18" s="77">
+      <c r="R18" s="72">
         <v>32.8717486348094</v>
       </c>
-      <c r="S18" s="76">
+      <c r="S18" s="71">
         <v>23.219744634215001</v>
       </c>
-      <c r="T18" s="76">
+      <c r="T18" s="71">
         <v>22.706635904938501</v>
       </c>
-      <c r="U18" s="78">
+      <c r="U18" s="73">
         <v>2.2097948851705098</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="62" t="s">
+    <row r="19" spans="1:21" ht="12" thickBot="1">
+      <c r="A19" s="74"/>
+      <c r="B19" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="76">
+      <c r="C19" s="47"/>
+      <c r="D19" s="71">
         <v>598674.91099999996</v>
       </c>
-      <c r="E19" s="76">
+      <c r="E19" s="71">
         <v>613499.94350000005</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="72">
         <v>97.583531562297495</v>
       </c>
-      <c r="G19" s="76">
+      <c r="G19" s="71">
         <v>552227.2193</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="72">
         <v>8.4109746996674293</v>
       </c>
-      <c r="I19" s="76">
+      <c r="I19" s="71">
         <v>7979.3329000000003</v>
       </c>
-      <c r="J19" s="77">
+      <c r="J19" s="72">
         <v>1.3328323524818599</v>
       </c>
-      <c r="K19" s="76">
+      <c r="K19" s="71">
         <v>25837.970700000002</v>
       </c>
-      <c r="L19" s="77">
+      <c r="L19" s="72">
         <v>4.6788658358333102</v>
       </c>
-      <c r="M19" s="77">
+      <c r="M19" s="72">
         <v>-0.69117803434926905</v>
       </c>
-      <c r="N19" s="76">
+      <c r="N19" s="71">
         <v>15120195.681600001</v>
       </c>
-      <c r="O19" s="76">
+      <c r="O19" s="71">
         <v>92508777.012500003</v>
       </c>
-      <c r="P19" s="76">
+      <c r="P19" s="71">
         <v>10648</v>
       </c>
-      <c r="Q19" s="76">
+      <c r="Q19" s="71">
         <v>8314</v>
       </c>
-      <c r="R19" s="77">
+      <c r="R19" s="72">
         <v>28.073129660813098</v>
       </c>
-      <c r="S19" s="76">
+      <c r="S19" s="71">
         <v>56.224165195341897</v>
       </c>
-      <c r="T19" s="76">
+      <c r="T19" s="71">
         <v>50.2093331489055</v>
       </c>
-      <c r="U19" s="78">
+      <c r="U19" s="73">
         <v>10.697948160793199</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="62" t="s">
+    <row r="20" spans="1:21" ht="12" thickBot="1">
+      <c r="A20" s="74"/>
+      <c r="B20" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="76">
+      <c r="C20" s="47"/>
+      <c r="D20" s="71">
         <v>1054753.2278</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="71">
         <v>1047682.0946</v>
       </c>
-      <c r="F20" s="77">
+      <c r="F20" s="72">
         <v>100.67493118728</v>
       </c>
-      <c r="G20" s="76">
+      <c r="G20" s="71">
         <v>795913.86309999996</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="72">
         <v>32.521027299593499</v>
       </c>
-      <c r="I20" s="76">
+      <c r="I20" s="71">
         <v>85929.72</v>
       </c>
-      <c r="J20" s="77">
+      <c r="J20" s="72">
         <v>8.1469027764183206</v>
       </c>
-      <c r="K20" s="76">
+      <c r="K20" s="71">
         <v>49045.443099999997</v>
       </c>
-      <c r="L20" s="77">
+      <c r="L20" s="72">
         <v>6.1621546468575401</v>
       </c>
-      <c r="M20" s="77">
+      <c r="M20" s="72">
         <v>0.75204289264541302</v>
       </c>
-      <c r="N20" s="76">
+      <c r="N20" s="71">
         <v>27778554.185600001</v>
       </c>
-      <c r="O20" s="76">
+      <c r="O20" s="71">
         <v>154659895.31200001</v>
       </c>
-      <c r="P20" s="76">
+      <c r="P20" s="71">
         <v>36421</v>
       </c>
-      <c r="Q20" s="76">
+      <c r="Q20" s="71">
         <v>32417</v>
       </c>
-      <c r="R20" s="77">
+      <c r="R20" s="72">
         <v>12.351543942992899</v>
       </c>
-      <c r="S20" s="76">
+      <c r="S20" s="71">
         <v>28.960029318250498</v>
       </c>
-      <c r="T20" s="76">
+      <c r="T20" s="71">
         <v>28.4580443810346</v>
       </c>
-      <c r="U20" s="78">
+      <c r="U20" s="73">
         <v>1.73337164717394</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="62" t="s">
+    <row r="21" spans="1:21" ht="12" thickBot="1">
+      <c r="A21" s="74"/>
+      <c r="B21" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="76">
+      <c r="C21" s="47"/>
+      <c r="D21" s="71">
         <v>347174.55599999998</v>
       </c>
-      <c r="E21" s="76">
+      <c r="E21" s="71">
         <v>460763.93699999998</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="72">
         <v>75.3475973533059</v>
       </c>
-      <c r="G21" s="76">
+      <c r="G21" s="71">
         <v>309045.4424</v>
       </c>
-      <c r="H21" s="77">
+      <c r="H21" s="72">
         <v>12.337704547232599</v>
       </c>
-      <c r="I21" s="76">
+      <c r="I21" s="71">
         <v>28264.377400000001</v>
       </c>
-      <c r="J21" s="77">
+      <c r="J21" s="72">
         <v>8.1412583127203604</v>
       </c>
-      <c r="K21" s="76">
+      <c r="K21" s="71">
         <v>18814.370599999998</v>
       </c>
-      <c r="L21" s="77">
+      <c r="L21" s="72">
         <v>6.0878977712437603</v>
       </c>
-      <c r="M21" s="77">
+      <c r="M21" s="72">
         <v>0.50227599960213398</v>
       </c>
-      <c r="N21" s="76">
+      <c r="N21" s="71">
         <v>9483589.8035000004</v>
       </c>
-      <c r="O21" s="76">
+      <c r="O21" s="71">
         <v>56849469.760700002</v>
       </c>
-      <c r="P21" s="76">
+      <c r="P21" s="71">
         <v>29649</v>
       </c>
-      <c r="Q21" s="76">
+      <c r="Q21" s="71">
         <v>23983</v>
       </c>
-      <c r="R21" s="77">
+      <c r="R21" s="72">
         <v>23.6250677563274</v>
       </c>
-      <c r="S21" s="76">
+      <c r="S21" s="71">
         <v>11.7094861884043</v>
       </c>
-      <c r="T21" s="76">
+      <c r="T21" s="71">
         <v>11.5349286869866</v>
       </c>
-      <c r="U21" s="78">
+      <c r="U21" s="73">
         <v>1.4907357898468301</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="62" t="s">
+    <row r="22" spans="1:21" ht="12" thickBot="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="76">
+      <c r="C22" s="47"/>
+      <c r="D22" s="71">
         <v>1260421.2903</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="71">
         <v>1262944.2945000001</v>
       </c>
-      <c r="F22" s="77">
+      <c r="F22" s="72">
         <v>99.800228386082594</v>
       </c>
-      <c r="G22" s="76">
+      <c r="G22" s="71">
         <v>1138062.5803</v>
       </c>
-      <c r="H22" s="77">
+      <c r="H22" s="72">
         <v>10.751492239358701</v>
       </c>
-      <c r="I22" s="76">
+      <c r="I22" s="71">
         <v>60275.634400000003</v>
       </c>
-      <c r="J22" s="77">
+      <c r="J22" s="72">
         <v>4.7821815502381302</v>
       </c>
-      <c r="K22" s="76">
+      <c r="K22" s="71">
         <v>100195.4507</v>
       </c>
-      <c r="L22" s="77">
+      <c r="L22" s="72">
         <v>8.8040370041503202</v>
       </c>
-      <c r="M22" s="77">
+      <c r="M22" s="72">
         <v>-0.39841944939721702</v>
       </c>
-      <c r="N22" s="76">
+      <c r="N22" s="71">
         <v>33150367.0266</v>
       </c>
-      <c r="O22" s="76">
+      <c r="O22" s="71">
         <v>177046819.26429999</v>
       </c>
-      <c r="P22" s="76">
+      <c r="P22" s="71">
         <v>76123</v>
       </c>
-      <c r="Q22" s="76">
+      <c r="Q22" s="71">
         <v>61132</v>
       </c>
-      <c r="R22" s="77">
+      <c r="R22" s="72">
         <v>24.5223450893149</v>
       </c>
-      <c r="S22" s="76">
+      <c r="S22" s="71">
         <v>16.557693342353801</v>
       </c>
-      <c r="T22" s="76">
+      <c r="T22" s="71">
         <v>16.088518155793999</v>
       </c>
-      <c r="U22" s="78">
+      <c r="U22" s="73">
         <v>2.8335781854328301</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="62" t="s">
+    <row r="23" spans="1:21" ht="12" thickBot="1">
+      <c r="A23" s="74"/>
+      <c r="B23" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="76">
+      <c r="C23" s="47"/>
+      <c r="D23" s="71">
         <v>2520460.7311999998</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="71">
         <v>2866531.2995000002</v>
       </c>
-      <c r="F23" s="77">
+      <c r="F23" s="72">
         <v>87.927200782340506</v>
       </c>
-      <c r="G23" s="76">
+      <c r="G23" s="71">
         <v>2624987.0554999998</v>
       </c>
-      <c r="H23" s="77">
+      <c r="H23" s="72">
         <v>-3.9819748474946302</v>
       </c>
-      <c r="I23" s="76">
+      <c r="I23" s="71">
         <v>142374.5497</v>
       </c>
-      <c r="J23" s="77">
+      <c r="J23" s="72">
         <v>5.6487509580129398</v>
       </c>
-      <c r="K23" s="76">
+      <c r="K23" s="71">
         <v>156674.7635</v>
       </c>
-      <c r="L23" s="77">
+      <c r="L23" s="72">
         <v>5.9685918515951304</v>
       </c>
-      <c r="M23" s="77">
+      <c r="M23" s="72">
         <v>-9.1273243249542002E-2</v>
       </c>
-      <c r="N23" s="76">
+      <c r="N23" s="71">
         <v>75766046.770199999</v>
       </c>
-      <c r="O23" s="76">
+      <c r="O23" s="71">
         <v>397575878.5521</v>
       </c>
-      <c r="P23" s="76">
+      <c r="P23" s="71">
         <v>74798</v>
       </c>
-      <c r="Q23" s="76">
+      <c r="Q23" s="71">
         <v>65806</v>
       </c>
-      <c r="R23" s="77">
+      <c r="R23" s="72">
         <v>13.6644075008358</v>
       </c>
-      <c r="S23" s="76">
+      <c r="S23" s="71">
         <v>33.696900066846702</v>
       </c>
-      <c r="T23" s="76">
+      <c r="T23" s="71">
         <v>34.598822130200901</v>
       </c>
-      <c r="U23" s="78">
+      <c r="U23" s="73">
         <v>-2.67657280510964</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="62" t="s">
+    <row r="24" spans="1:21" ht="12" thickBot="1">
+      <c r="A24" s="74"/>
+      <c r="B24" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="76">
+      <c r="C24" s="47"/>
+      <c r="D24" s="71">
         <v>252965.8861</v>
       </c>
-      <c r="E24" s="76">
+      <c r="E24" s="71">
         <v>216049.05900000001</v>
       </c>
-      <c r="F24" s="77">
+      <c r="F24" s="72">
         <v>117.087242717405</v>
       </c>
-      <c r="G24" s="76">
+      <c r="G24" s="71">
         <v>206975.96040000001</v>
       </c>
-      <c r="H24" s="77">
+      <c r="H24" s="72">
         <v>22.219935885848901</v>
       </c>
-      <c r="I24" s="76">
+      <c r="I24" s="71">
         <v>37986.1993</v>
       </c>
-      <c r="J24" s="77">
+      <c r="J24" s="72">
         <v>15.0163327892298</v>
       </c>
-      <c r="K24" s="76">
+      <c r="K24" s="71">
         <v>23154.548999999999</v>
       </c>
-      <c r="L24" s="77">
+      <c r="L24" s="72">
         <v>11.187071655689699</v>
       </c>
-      <c r="M24" s="77">
+      <c r="M24" s="72">
         <v>0.64055017007673098</v>
       </c>
-      <c r="N24" s="76">
+      <c r="N24" s="71">
         <v>6304136.3740999997</v>
       </c>
-      <c r="O24" s="76">
+      <c r="O24" s="71">
         <v>39174674.078299999</v>
       </c>
-      <c r="P24" s="76">
+      <c r="P24" s="71">
         <v>22387</v>
       </c>
-      <c r="Q24" s="76">
+      <c r="Q24" s="71">
         <v>18887</v>
       </c>
-      <c r="R24" s="77">
+      <c r="R24" s="72">
         <v>18.531264891195001</v>
       </c>
-      <c r="S24" s="76">
+      <c r="S24" s="71">
         <v>11.299677763880799</v>
       </c>
-      <c r="T24" s="76">
+      <c r="T24" s="71">
         <v>10.618922369884</v>
       </c>
-      <c r="U24" s="78">
+      <c r="U24" s="73">
         <v>6.02455581674017</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="62" t="s">
+    <row r="25" spans="1:21" ht="12" thickBot="1">
+      <c r="A25" s="74"/>
+      <c r="B25" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="76">
+      <c r="C25" s="47"/>
+      <c r="D25" s="71">
         <v>235048.02540000001</v>
       </c>
-      <c r="E25" s="76">
+      <c r="E25" s="71">
         <v>315601.4423</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F25" s="72">
         <v>74.476220288173295</v>
       </c>
-      <c r="G25" s="76">
+      <c r="G25" s="71">
         <v>285080.31790000002</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H25" s="72">
         <v>-17.550244390267</v>
       </c>
-      <c r="I25" s="76">
+      <c r="I25" s="71">
         <v>19419.3128</v>
       </c>
-      <c r="J25" s="77">
+      <c r="J25" s="72">
         <v>8.2618489421268695</v>
       </c>
-      <c r="K25" s="76">
+      <c r="K25" s="71">
         <v>2633.4816999999998</v>
       </c>
-      <c r="L25" s="77">
+      <c r="L25" s="72">
         <v>0.92376833286813198</v>
       </c>
-      <c r="M25" s="77">
+      <c r="M25" s="72">
         <v>6.3740071176496098</v>
       </c>
-      <c r="N25" s="76">
+      <c r="N25" s="71">
         <v>6961117.4386</v>
       </c>
-      <c r="O25" s="76">
+      <c r="O25" s="71">
         <v>51697617.808899999</v>
       </c>
-      <c r="P25" s="76">
+      <c r="P25" s="71">
         <v>16256</v>
       </c>
-      <c r="Q25" s="76">
+      <c r="Q25" s="71">
         <v>13568</v>
       </c>
-      <c r="R25" s="77">
+      <c r="R25" s="72">
         <v>19.811320754716998</v>
       </c>
-      <c r="S25" s="76">
+      <c r="S25" s="71">
         <v>14.459155105807101</v>
       </c>
-      <c r="T25" s="76">
+      <c r="T25" s="71">
         <v>14.3501460495283</v>
       </c>
-      <c r="U25" s="78">
+      <c r="U25" s="73">
         <v>0.75391027678376898</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="62" t="s">
+    <row r="26" spans="1:21" ht="12" thickBot="1">
+      <c r="A26" s="74"/>
+      <c r="B26" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="76">
+      <c r="C26" s="47"/>
+      <c r="D26" s="71">
         <v>686102.32109999994</v>
       </c>
-      <c r="E26" s="76">
+      <c r="E26" s="71">
         <v>643994.81640000001</v>
       </c>
-      <c r="F26" s="77">
+      <c r="F26" s="72">
         <v>106.53848503554499</v>
       </c>
-      <c r="G26" s="76">
+      <c r="G26" s="71">
         <v>583398.62950000004</v>
       </c>
-      <c r="H26" s="77">
+      <c r="H26" s="72">
         <v>17.604376562903798</v>
       </c>
-      <c r="I26" s="76">
+      <c r="I26" s="71">
         <v>109354.663</v>
       </c>
-      <c r="J26" s="77">
+      <c r="J26" s="72">
         <v>15.9385356435868</v>
       </c>
-      <c r="K26" s="76">
+      <c r="K26" s="71">
         <v>76892.137199999997</v>
       </c>
-      <c r="L26" s="77">
+      <c r="L26" s="72">
         <v>13.1800339102442</v>
       </c>
-      <c r="M26" s="77">
+      <c r="M26" s="72">
         <v>0.42218264418328599</v>
       </c>
-      <c r="N26" s="76">
+      <c r="N26" s="71">
         <v>16250484.3093</v>
       </c>
-      <c r="O26" s="76">
+      <c r="O26" s="71">
         <v>92436040.978699997</v>
       </c>
-      <c r="P26" s="76">
+      <c r="P26" s="71">
         <v>40489</v>
       </c>
-      <c r="Q26" s="76">
+      <c r="Q26" s="71">
         <v>34531</v>
       </c>
-      <c r="R26" s="77">
+      <c r="R26" s="72">
         <v>17.2540615678666</v>
       </c>
-      <c r="S26" s="76">
+      <c r="S26" s="71">
         <v>16.945400506310399</v>
       </c>
-      <c r="T26" s="76">
+      <c r="T26" s="71">
         <v>16.7745376531233</v>
       </c>
-      <c r="U26" s="78">
+      <c r="U26" s="73">
         <v>1.00831404441252</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="62" t="s">
+    <row r="27" spans="1:21" ht="12" thickBot="1">
+      <c r="A27" s="74"/>
+      <c r="B27" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="76">
+      <c r="C27" s="47"/>
+      <c r="D27" s="71">
         <v>250206.51310000001</v>
       </c>
-      <c r="E27" s="76">
+      <c r="E27" s="71">
         <v>282841.8909</v>
       </c>
-      <c r="F27" s="77">
+      <c r="F27" s="72">
         <v>88.461618009922603</v>
       </c>
-      <c r="G27" s="76">
+      <c r="G27" s="71">
         <v>206934.24460000001</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27" s="72">
         <v>20.911120140431301</v>
       </c>
-      <c r="I27" s="76">
+      <c r="I27" s="71">
         <v>62587.7837</v>
       </c>
-      <c r="J27" s="77">
+      <c r="J27" s="72">
         <v>25.0144502333501</v>
       </c>
-      <c r="K27" s="76">
+      <c r="K27" s="71">
         <v>35914.158199999998</v>
       </c>
-      <c r="L27" s="77">
+      <c r="L27" s="72">
         <v>17.3553479606149</v>
       </c>
-      <c r="M27" s="77">
+      <c r="M27" s="72">
         <v>0.74270501765512598</v>
       </c>
-      <c r="N27" s="76">
+      <c r="N27" s="71">
         <v>6434614.3891000003</v>
       </c>
-      <c r="O27" s="76">
+      <c r="O27" s="71">
         <v>31537316.485199999</v>
       </c>
-      <c r="P27" s="76">
+      <c r="P27" s="71">
         <v>29759</v>
       </c>
-      <c r="Q27" s="76">
+      <c r="Q27" s="71">
         <v>24765</v>
       </c>
-      <c r="R27" s="77">
+      <c r="R27" s="72">
         <v>20.1655562285484</v>
       </c>
-      <c r="S27" s="76">
+      <c r="S27" s="71">
         <v>8.4077594374811007</v>
       </c>
-      <c r="T27" s="76">
+      <c r="T27" s="71">
         <v>8.1843794871794895</v>
       </c>
-      <c r="U27" s="78">
+      <c r="U27" s="73">
         <v>2.6568308948731301</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="62" t="s">
+    <row r="28" spans="1:21" ht="12" thickBot="1">
+      <c r="A28" s="74"/>
+      <c r="B28" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="76">
+      <c r="C28" s="47"/>
+      <c r="D28" s="71">
         <v>880720.22349999996</v>
       </c>
-      <c r="E28" s="76">
+      <c r="E28" s="71">
         <v>820997.15769999998</v>
       </c>
-      <c r="F28" s="77">
+      <c r="F28" s="72">
         <v>107.274454636032</v>
       </c>
-      <c r="G28" s="76">
+      <c r="G28" s="71">
         <v>676617.85829999996</v>
       </c>
-      <c r="H28" s="77">
+      <c r="H28" s="72">
         <v>30.165086938853001</v>
       </c>
-      <c r="I28" s="76">
+      <c r="I28" s="71">
         <v>26706.264999999999</v>
       </c>
-      <c r="J28" s="77">
+      <c r="J28" s="72">
         <v>3.0323210807932601</v>
       </c>
-      <c r="K28" s="76">
+      <c r="K28" s="71">
         <v>6157.9072999999999</v>
       </c>
-      <c r="L28" s="77">
+      <c r="L28" s="72">
         <v>0.91010120771445802</v>
       </c>
-      <c r="M28" s="77">
+      <c r="M28" s="72">
         <v>3.3369059810302799</v>
       </c>
-      <c r="N28" s="76">
+      <c r="N28" s="71">
         <v>23146344.1263</v>
       </c>
-      <c r="O28" s="76">
+      <c r="O28" s="71">
         <v>131850027.7353</v>
       </c>
-      <c r="P28" s="76">
+      <c r="P28" s="71">
         <v>37889</v>
       </c>
-      <c r="Q28" s="76">
+      <c r="Q28" s="71">
         <v>32589</v>
       </c>
-      <c r="R28" s="77">
+      <c r="R28" s="72">
         <v>16.263156279726299</v>
       </c>
-      <c r="S28" s="76">
+      <c r="S28" s="71">
         <v>23.2447471165774</v>
       </c>
-      <c r="T28" s="76">
+      <c r="T28" s="71">
         <v>23.017432688944101</v>
       </c>
-      <c r="U28" s="78">
+      <c r="U28" s="73">
         <v>0.97791740427725704</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="62" t="s">
+    <row r="29" spans="1:21" ht="12" thickBot="1">
+      <c r="A29" s="74"/>
+      <c r="B29" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="76">
+      <c r="C29" s="47"/>
+      <c r="D29" s="71">
         <v>822742.652</v>
       </c>
-      <c r="E29" s="76">
+      <c r="E29" s="71">
         <v>836613.43290000001</v>
       </c>
-      <c r="F29" s="77">
+      <c r="F29" s="72">
         <v>98.342032251153498</v>
       </c>
-      <c r="G29" s="76">
+      <c r="G29" s="71">
         <v>636811.81209999998</v>
       </c>
-      <c r="H29" s="77">
+      <c r="H29" s="72">
         <v>29.1971405629019</v>
       </c>
-      <c r="I29" s="76">
+      <c r="I29" s="71">
         <v>124903.08590000001</v>
       </c>
-      <c r="J29" s="77">
+      <c r="J29" s="72">
         <v>15.181306766626699</v>
       </c>
-      <c r="K29" s="76">
+      <c r="K29" s="71">
         <v>80319.268200000006</v>
       </c>
-      <c r="L29" s="77">
+      <c r="L29" s="72">
         <v>12.6127164530967</v>
       </c>
-      <c r="M29" s="77">
+      <c r="M29" s="72">
         <v>0.55508246899092095</v>
       </c>
-      <c r="N29" s="76">
+      <c r="N29" s="71">
         <v>23586069.432599999</v>
       </c>
-      <c r="O29" s="76">
+      <c r="O29" s="71">
         <v>97473687.4868</v>
       </c>
-      <c r="P29" s="76">
+      <c r="P29" s="71">
         <v>107183</v>
       </c>
-      <c r="Q29" s="76">
+      <c r="Q29" s="71">
         <v>99867</v>
       </c>
-      <c r="R29" s="77">
+      <c r="R29" s="72">
         <v>7.3257432385072097</v>
       </c>
-      <c r="S29" s="76">
+      <c r="S29" s="71">
         <v>7.6760554565556101</v>
       </c>
-      <c r="T29" s="76">
+      <c r="T29" s="71">
         <v>7.5598792854496502</v>
       </c>
-      <c r="U29" s="78">
+      <c r="U29" s="73">
         <v>1.51348790747394</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="62" t="s">
+    <row r="30" spans="1:21" ht="12" thickBot="1">
+      <c r="A30" s="74"/>
+      <c r="B30" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="76">
+      <c r="C30" s="47"/>
+      <c r="D30" s="71">
         <v>1488860.1664</v>
       </c>
-      <c r="E30" s="76">
+      <c r="E30" s="71">
         <v>1551992.0660999999</v>
       </c>
-      <c r="F30" s="77">
+      <c r="F30" s="72">
         <v>95.932202162692505</v>
       </c>
-      <c r="G30" s="76">
+      <c r="G30" s="71">
         <v>1175237.2487000001</v>
       </c>
-      <c r="H30" s="77">
+      <c r="H30" s="72">
         <v>26.685923888722598</v>
       </c>
-      <c r="I30" s="76">
+      <c r="I30" s="71">
         <v>157165.6586</v>
       </c>
-      <c r="J30" s="77">
+      <c r="J30" s="72">
         <v>10.556106083489301</v>
       </c>
-      <c r="K30" s="76">
+      <c r="K30" s="71">
         <v>103339.8296</v>
       </c>
-      <c r="L30" s="77">
+      <c r="L30" s="72">
         <v>8.7931036660308699</v>
       </c>
-      <c r="M30" s="77">
+      <c r="M30" s="72">
         <v>0.52086237424955095</v>
       </c>
-      <c r="N30" s="76">
+      <c r="N30" s="71">
         <v>35718962.905299999</v>
       </c>
-      <c r="O30" s="76">
+      <c r="O30" s="71">
         <v>139949657.2191</v>
       </c>
-      <c r="P30" s="76">
+      <c r="P30" s="71">
         <v>80109</v>
       </c>
-      <c r="Q30" s="76">
+      <c r="Q30" s="71">
         <v>64918</v>
       </c>
-      <c r="R30" s="77">
+      <c r="R30" s="72">
         <v>23.4002895961059</v>
       </c>
-      <c r="S30" s="76">
+      <c r="S30" s="71">
         <v>18.585429432398399</v>
       </c>
-      <c r="T30" s="76">
+      <c r="T30" s="71">
         <v>15.885853613789701</v>
       </c>
-      <c r="U30" s="78">
+      <c r="U30" s="73">
         <v>14.525227024901101</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="62" t="s">
+    <row r="31" spans="1:21" ht="12" thickBot="1">
+      <c r="A31" s="74"/>
+      <c r="B31" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="76">
+      <c r="C31" s="47"/>
+      <c r="D31" s="71">
         <v>569044.02819999994</v>
       </c>
-      <c r="E31" s="76">
+      <c r="E31" s="71">
         <v>973577.43110000005</v>
       </c>
-      <c r="F31" s="77">
+      <c r="F31" s="72">
         <v>58.4487694581276</v>
       </c>
-      <c r="G31" s="76">
+      <c r="G31" s="71">
         <v>522716.77370000002</v>
       </c>
-      <c r="H31" s="77">
+      <c r="H31" s="72">
         <v>8.8627832185443705</v>
       </c>
-      <c r="I31" s="76">
+      <c r="I31" s="71">
         <v>35546.033300000003</v>
       </c>
-      <c r="J31" s="77">
+      <c r="J31" s="72">
         <v>6.2466226756546801</v>
       </c>
-      <c r="K31" s="76">
+      <c r="K31" s="71">
         <v>34618.291299999997</v>
       </c>
-      <c r="L31" s="77">
+      <c r="L31" s="72">
         <v>6.6227626588214799</v>
       </c>
-      <c r="M31" s="77">
+      <c r="M31" s="72">
         <v>2.6799185204153E-2</v>
       </c>
-      <c r="N31" s="76">
+      <c r="N31" s="71">
         <v>25079422.3772</v>
       </c>
-      <c r="O31" s="76">
+      <c r="O31" s="71">
         <v>159077385.72839999</v>
       </c>
-      <c r="P31" s="76">
+      <c r="P31" s="71">
         <v>24860</v>
       </c>
-      <c r="Q31" s="76">
+      <c r="Q31" s="71">
         <v>22239</v>
       </c>
-      <c r="R31" s="77">
+      <c r="R31" s="72">
         <v>11.785601870587699</v>
       </c>
-      <c r="S31" s="76">
+      <c r="S31" s="71">
         <v>22.889944818986301</v>
       </c>
-      <c r="T31" s="76">
+      <c r="T31" s="71">
         <v>26.331454184091001</v>
       </c>
-      <c r="U31" s="78">
+      <c r="U31" s="73">
         <v>-15.0350269182392</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="62" t="s">
+    <row r="32" spans="1:21" ht="12" thickBot="1">
+      <c r="A32" s="74"/>
+      <c r="B32" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="76">
+      <c r="C32" s="47"/>
+      <c r="D32" s="71">
         <v>107555.56909999999</v>
       </c>
-      <c r="E32" s="76">
+      <c r="E32" s="71">
         <v>116475.11930000001</v>
       </c>
-      <c r="F32" s="77">
+      <c r="F32" s="72">
         <v>92.342098249304001</v>
       </c>
-      <c r="G32" s="76">
+      <c r="G32" s="71">
         <v>97338.453800000003</v>
       </c>
-      <c r="H32" s="77">
+      <c r="H32" s="72">
         <v>10.496484072977999</v>
       </c>
-      <c r="I32" s="76">
+      <c r="I32" s="71">
         <v>26839.6859</v>
       </c>
-      <c r="J32" s="77">
+      <c r="J32" s="72">
         <v>24.9542502769389</v>
       </c>
-      <c r="K32" s="76">
+      <c r="K32" s="71">
         <v>26339.401399999999</v>
       </c>
-      <c r="L32" s="77">
+      <c r="L32" s="72">
         <v>27.059605296504099</v>
       </c>
-      <c r="M32" s="77">
+      <c r="M32" s="72">
         <v>1.8993768780182E-2</v>
       </c>
-      <c r="N32" s="76">
+      <c r="N32" s="71">
         <v>2954322.9087999999</v>
       </c>
-      <c r="O32" s="76">
+      <c r="O32" s="71">
         <v>15270676.7349</v>
       </c>
-      <c r="P32" s="76">
+      <c r="P32" s="71">
         <v>23046</v>
       </c>
-      <c r="Q32" s="76">
+      <c r="Q32" s="71">
         <v>20784</v>
       </c>
-      <c r="R32" s="77">
+      <c r="R32" s="72">
         <v>10.883371824480401</v>
       </c>
-      <c r="S32" s="76">
+      <c r="S32" s="71">
         <v>4.66699510110214</v>
       </c>
-      <c r="T32" s="76">
+      <c r="T32" s="71">
         <v>4.4369380869899899</v>
       </c>
-      <c r="U32" s="78">
+      <c r="U32" s="73">
         <v>4.9294462309982201</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="62" t="s">
+    <row r="33" spans="1:21" ht="12" thickBot="1">
+      <c r="A33" s="74"/>
+      <c r="B33" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="76">
+      <c r="C33" s="47"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="71">
         <v>9.8230000000000004</v>
       </c>
-      <c r="O33" s="76">
+      <c r="O33" s="71">
         <v>301.12830000000002</v>
       </c>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="79"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="79"/>
-      <c r="U33" s="80"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="76"/>
     </row>
-    <row r="34" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="62" t="s">
+    <row r="34" spans="1:21" ht="12" thickBot="1">
+      <c r="A34" s="74"/>
+      <c r="B34" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="76">
+      <c r="C34" s="47"/>
+      <c r="D34" s="71">
         <v>199201.93919999999</v>
       </c>
-      <c r="E34" s="76">
+      <c r="E34" s="71">
         <v>152028.3523</v>
       </c>
-      <c r="F34" s="77">
+      <c r="F34" s="72">
         <v>131.029466666133</v>
       </c>
-      <c r="G34" s="76">
+      <c r="G34" s="71">
         <v>108989.80710000001</v>
       </c>
-      <c r="H34" s="77">
+      <c r="H34" s="72">
         <v>82.771164111914501</v>
       </c>
-      <c r="I34" s="76">
+      <c r="I34" s="71">
         <v>2158.3195999999998</v>
       </c>
-      <c r="J34" s="77">
+      <c r="J34" s="72">
         <v>1.0834832274564501</v>
       </c>
-      <c r="K34" s="76">
+      <c r="K34" s="71">
         <v>12710.573</v>
       </c>
-      <c r="L34" s="77">
+      <c r="L34" s="72">
         <v>11.6621667091656</v>
       </c>
-      <c r="M34" s="77">
+      <c r="M34" s="72">
         <v>-0.830194940857505</v>
       </c>
-      <c r="N34" s="76">
+      <c r="N34" s="71">
         <v>3652582.8500999999</v>
       </c>
-      <c r="O34" s="76">
+      <c r="O34" s="71">
         <v>26548225.517200001</v>
       </c>
-      <c r="P34" s="76">
+      <c r="P34" s="71">
         <v>13893</v>
       </c>
-      <c r="Q34" s="76">
+      <c r="Q34" s="71">
         <v>11212</v>
       </c>
-      <c r="R34" s="77">
+      <c r="R34" s="72">
         <v>23.911880128433801</v>
       </c>
-      <c r="S34" s="76">
+      <c r="S34" s="71">
         <v>14.3382954869359</v>
       </c>
-      <c r="T34" s="76">
+      <c r="T34" s="71">
         <v>14.0577171869426</v>
       </c>
-      <c r="U34" s="78">
+      <c r="U34" s="73">
         <v>1.9568455696072899</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
-      <c r="B35" s="62" t="s">
+    <row r="35" spans="1:21" ht="12" thickBot="1">
+      <c r="A35" s="74"/>
+      <c r="B35" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="76">
+      <c r="C35" s="47"/>
+      <c r="D35" s="71">
         <v>1389.4874</v>
       </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="76">
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="71">
         <v>138.09049999999999</v>
       </c>
-      <c r="J35" s="77">
+      <c r="J35" s="72">
         <v>9.9382333369845597</v>
       </c>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="76">
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="71">
         <v>1389.4874</v>
       </c>
-      <c r="O35" s="76">
+      <c r="O35" s="71">
         <v>1389.4874</v>
       </c>
-      <c r="P35" s="76">
+      <c r="P35" s="71">
         <v>136</v>
       </c>
-      <c r="Q35" s="79"/>
-      <c r="R35" s="79"/>
-      <c r="S35" s="76">
+      <c r="Q35" s="75"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="71">
         <v>10.2168191176471</v>
       </c>
-      <c r="T35" s="79"/>
-      <c r="U35" s="80"/>
+      <c r="T35" s="75"/>
+      <c r="U35" s="76"/>
     </row>
-    <row r="36" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="62" t="s">
+    <row r="36" spans="1:21" ht="12" thickBot="1">
+      <c r="A36" s="74"/>
+      <c r="B36" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="76">
+      <c r="C36" s="47"/>
+      <c r="D36" s="71">
         <v>860389.78</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="76">
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="71">
         <v>12212.83</v>
       </c>
-      <c r="H36" s="77">
+      <c r="H36" s="72">
         <v>6944.9664819701902</v>
       </c>
-      <c r="I36" s="76">
+      <c r="I36" s="71">
         <v>-50420.55</v>
       </c>
-      <c r="J36" s="77">
+      <c r="J36" s="72">
         <v>-5.8601986183517898</v>
       </c>
-      <c r="K36" s="76">
+      <c r="K36" s="71">
         <v>7.71</v>
       </c>
-      <c r="L36" s="77">
+      <c r="L36" s="72">
         <v>6.3130330971609E-2</v>
       </c>
-      <c r="M36" s="77">
+      <c r="M36" s="72">
         <v>-6540.6303501945504</v>
       </c>
-      <c r="N36" s="76">
+      <c r="N36" s="71">
         <v>4436881.76</v>
       </c>
-      <c r="O36" s="76">
+      <c r="O36" s="71">
         <v>19637721.989999998</v>
       </c>
-      <c r="P36" s="76">
+      <c r="P36" s="71">
         <v>100</v>
       </c>
-      <c r="Q36" s="76">
+      <c r="Q36" s="71">
         <v>50</v>
       </c>
-      <c r="R36" s="77">
+      <c r="R36" s="72">
         <v>100</v>
       </c>
-      <c r="S36" s="76">
+      <c r="S36" s="71">
         <v>8603.8978000000006</v>
       </c>
-      <c r="T36" s="76">
+      <c r="T36" s="71">
         <v>19518.565200000001</v>
       </c>
-      <c r="U36" s="78">
+      <c r="U36" s="73">
         <v>-126.85724137727399</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="62" t="s">
+    <row r="37" spans="1:21" ht="12" thickBot="1">
+      <c r="A37" s="74"/>
+      <c r="B37" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="76">
-        <v>1694587.96</v>
-      </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="76">
+      <c r="C37" s="47"/>
+      <c r="D37" s="71">
+        <v>1724064.9</v>
+      </c>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="71">
         <v>469773.56</v>
       </c>
-      <c r="H37" s="77">
-        <v>260.72442220886199</v>
-      </c>
-      <c r="I37" s="76">
-        <v>-140105.76</v>
-      </c>
-      <c r="J37" s="77">
-        <v>-8.2678363889709203</v>
-      </c>
-      <c r="K37" s="76">
+      <c r="H37" s="72">
+        <v>266.999134646914</v>
+      </c>
+      <c r="I37" s="71">
+        <v>-147492.09</v>
+      </c>
+      <c r="J37" s="72">
+        <v>-8.5549035886062104</v>
+      </c>
+      <c r="K37" s="71">
         <v>-89904.82</v>
       </c>
-      <c r="L37" s="77">
+      <c r="L37" s="72">
         <v>-19.1379055049416</v>
       </c>
-      <c r="M37" s="77">
-        <v>0.55837873875950095</v>
-      </c>
-      <c r="N37" s="76">
-        <v>7808208.79</v>
-      </c>
-      <c r="O37" s="76">
-        <v>58078350.240000002</v>
-      </c>
-      <c r="P37" s="76">
+      <c r="M37" s="72">
+        <v>0.64053595791638296</v>
+      </c>
+      <c r="N37" s="71">
+        <v>7837685.7300000004</v>
+      </c>
+      <c r="O37" s="71">
+        <v>58107827.18</v>
+      </c>
+      <c r="P37" s="71">
         <v>316</v>
       </c>
-      <c r="Q37" s="76">
+      <c r="Q37" s="71">
         <v>417</v>
       </c>
-      <c r="R37" s="77">
+      <c r="R37" s="72">
         <v>-24.220623501199</v>
       </c>
-      <c r="S37" s="76">
-        <v>5362.6201265822801</v>
-      </c>
-      <c r="T37" s="76">
+      <c r="S37" s="71">
+        <v>5455.9015822784804</v>
+      </c>
+      <c r="T37" s="71">
         <v>2185.8993045563502</v>
       </c>
-      <c r="U37" s="78">
-        <v>59.238222119800298</v>
+      <c r="U37" s="73">
+        <v>59.935140478771501</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="62" t="s">
+    <row r="38" spans="1:21" ht="12" thickBot="1">
+      <c r="A38" s="74"/>
+      <c r="B38" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="76">
-        <v>831327.96</v>
-      </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="76">
+      <c r="C38" s="47"/>
+      <c r="D38" s="71">
+        <v>926164.69</v>
+      </c>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="71">
         <v>852806.42</v>
       </c>
-      <c r="H38" s="77">
-        <v>-2.5185621843700399</v>
-      </c>
-      <c r="I38" s="76">
-        <v>-95641.63</v>
-      </c>
-      <c r="J38" s="77">
-        <v>-11.504681016623101</v>
-      </c>
-      <c r="K38" s="76">
+      <c r="H38" s="72">
+        <v>8.60198378900572</v>
+      </c>
+      <c r="I38" s="71">
+        <v>-111564.71</v>
+      </c>
+      <c r="J38" s="72">
+        <v>-12.045882466108701</v>
+      </c>
+      <c r="K38" s="71">
         <v>-97427.78</v>
       </c>
-      <c r="L38" s="77">
+      <c r="L38" s="72">
         <v>-11.4243722508562</v>
       </c>
-      <c r="M38" s="77">
-        <v>-1.8333066811128999E-2</v>
-      </c>
-      <c r="N38" s="76">
-        <v>4542334.1399999997</v>
-      </c>
-      <c r="O38" s="76">
-        <v>28907631.34</v>
-      </c>
-      <c r="P38" s="76">
+      <c r="M38" s="72">
+        <v>0.145101633230276</v>
+      </c>
+      <c r="N38" s="71">
+        <v>4637170.87</v>
+      </c>
+      <c r="O38" s="71">
+        <v>29002468.07</v>
+      </c>
+      <c r="P38" s="71">
         <v>382</v>
       </c>
-      <c r="Q38" s="76">
+      <c r="Q38" s="71">
         <v>527</v>
       </c>
-      <c r="R38" s="77">
+      <c r="R38" s="72">
         <v>-27.514231499051199</v>
       </c>
-      <c r="S38" s="76">
-        <v>2176.2512041884802</v>
-      </c>
-      <c r="T38" s="76">
+      <c r="S38" s="71">
+        <v>2424.5148952879599</v>
+      </c>
+      <c r="T38" s="71">
         <v>2467.85990512334</v>
       </c>
-      <c r="U38" s="78">
-        <v>-13.3995882632308</v>
+      <c r="U38" s="73">
+        <v>-1.78778071933575</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="62" t="s">
+    <row r="39" spans="1:21" ht="12" thickBot="1">
+      <c r="A39" s="74"/>
+      <c r="B39" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="76">
-        <v>553370.74</v>
-      </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="76">
+      <c r="C39" s="47"/>
+      <c r="D39" s="71">
+        <v>582210.93000000005</v>
+      </c>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="71">
         <v>373727.08</v>
       </c>
-      <c r="H39" s="77">
-        <v>48.068141061653897</v>
-      </c>
-      <c r="I39" s="76">
-        <v>-144910.94</v>
-      </c>
-      <c r="J39" s="77">
-        <v>-26.186953795207899</v>
-      </c>
-      <c r="K39" s="76">
+      <c r="H39" s="72">
+        <v>55.785053092754197</v>
+      </c>
+      <c r="I39" s="71">
+        <v>-152044.26999999999</v>
+      </c>
+      <c r="J39" s="72">
+        <v>-26.114980356002601</v>
+      </c>
+      <c r="K39" s="71">
         <v>-62055.49</v>
       </c>
-      <c r="L39" s="77">
+      <c r="L39" s="72">
         <v>-16.604493846151001</v>
       </c>
-      <c r="M39" s="77">
-        <v>1.33518323680951</v>
-      </c>
-      <c r="N39" s="76">
-        <v>5554516.8499999996</v>
-      </c>
-      <c r="O39" s="76">
-        <v>33417189.66</v>
-      </c>
-      <c r="P39" s="76">
+      <c r="M39" s="72">
+        <v>1.4501340654952499</v>
+      </c>
+      <c r="N39" s="71">
+        <v>5583357.04</v>
+      </c>
+      <c r="O39" s="71">
+        <v>33446029.850000001</v>
+      </c>
+      <c r="P39" s="71">
         <v>252</v>
       </c>
-      <c r="Q39" s="76">
+      <c r="Q39" s="71">
         <v>363</v>
       </c>
-      <c r="R39" s="77">
+      <c r="R39" s="72">
         <v>-30.578512396694201</v>
       </c>
-      <c r="S39" s="76">
-        <v>2195.9156349206401</v>
-      </c>
-      <c r="T39" s="76">
+      <c r="S39" s="71">
+        <v>2310.36083333333</v>
+      </c>
+      <c r="T39" s="71">
         <v>2389.8529476583999</v>
       </c>
-      <c r="U39" s="78">
-        <v>-8.8317287628755601</v>
+      <c r="U39" s="73">
+        <v>-3.4406796193120899</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="62" t="s">
+    <row r="40" spans="1:21" ht="12" thickBot="1">
+      <c r="A40" s="74"/>
+      <c r="B40" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="76">
+      <c r="C40" s="47"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="71">
         <v>0.04</v>
       </c>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="76">
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="71">
         <v>0.04</v>
       </c>
-      <c r="L40" s="77">
+      <c r="L40" s="72">
         <v>100</v>
       </c>
-      <c r="M40" s="79"/>
-      <c r="N40" s="76">
+      <c r="M40" s="75"/>
+      <c r="N40" s="71">
         <v>17.12</v>
       </c>
-      <c r="O40" s="76">
+      <c r="O40" s="71">
         <v>1244.43</v>
       </c>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="76">
+      <c r="P40" s="75"/>
+      <c r="Q40" s="71">
         <v>3</v>
       </c>
-      <c r="R40" s="79"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="76">
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="71">
         <v>3.333333333333E-3</v>
       </c>
-      <c r="U40" s="80"/>
+      <c r="U40" s="76"/>
     </row>
-    <row r="41" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="62" t="s">
+    <row r="41" spans="1:21" ht="12" thickBot="1">
+      <c r="A41" s="74"/>
+      <c r="B41" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="76">
+      <c r="C41" s="47"/>
+      <c r="D41" s="71">
         <v>112939.658</v>
       </c>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="76">
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="71">
         <v>103316.41009999999</v>
       </c>
-      <c r="H41" s="77">
+      <c r="H41" s="72">
         <v>9.3143459888759708</v>
       </c>
-      <c r="I41" s="76">
+      <c r="I41" s="71">
         <v>5415.3263999999999</v>
       </c>
-      <c r="J41" s="77">
+      <c r="J41" s="72">
         <v>4.7948847162260799</v>
       </c>
-      <c r="K41" s="76">
+      <c r="K41" s="71">
         <v>5235.7695000000003</v>
       </c>
-      <c r="L41" s="77">
+      <c r="L41" s="72">
         <v>5.0677036638538802</v>
       </c>
-      <c r="M41" s="77">
+      <c r="M41" s="72">
         <v>3.4294271357819997E-2</v>
       </c>
-      <c r="N41" s="76">
+      <c r="N41" s="71">
         <v>1477726.8414</v>
       </c>
-      <c r="O41" s="76">
+      <c r="O41" s="71">
         <v>11354568.971000001</v>
       </c>
-      <c r="P41" s="76">
+      <c r="P41" s="71">
         <v>102</v>
       </c>
-      <c r="Q41" s="76">
+      <c r="Q41" s="71">
         <v>76</v>
       </c>
-      <c r="R41" s="77">
+      <c r="R41" s="72">
         <v>34.210526315789501</v>
       </c>
-      <c r="S41" s="76">
+      <c r="S41" s="71">
         <v>1107.2515490196099</v>
       </c>
-      <c r="T41" s="76">
+      <c r="T41" s="71">
         <v>562.61808289473697</v>
       </c>
-      <c r="U41" s="78">
+      <c r="U41" s="73">
         <v>49.187871230083601</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="62" t="s">
+    <row r="42" spans="1:21" ht="12" thickBot="1">
+      <c r="A42" s="74"/>
+      <c r="B42" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="76">
+      <c r="C42" s="47"/>
+      <c r="D42" s="71">
         <v>1372948.6580999999</v>
       </c>
-      <c r="E42" s="76">
+      <c r="E42" s="71">
         <v>818790.73930000002</v>
       </c>
-      <c r="F42" s="77">
+      <c r="F42" s="72">
         <v>167.68004231139199</v>
       </c>
-      <c r="G42" s="76">
+      <c r="G42" s="71">
         <v>339128.52990000002</v>
       </c>
-      <c r="H42" s="77">
+      <c r="H42" s="72">
         <v>304.84610908579299</v>
       </c>
-      <c r="I42" s="76">
+      <c r="I42" s="71">
         <v>11159.761200000001</v>
       </c>
-      <c r="J42" s="77">
+      <c r="J42" s="72">
         <v>0.812831647721176</v>
       </c>
-      <c r="K42" s="76">
+      <c r="K42" s="71">
         <v>11029.1677</v>
       </c>
-      <c r="L42" s="77">
+      <c r="L42" s="72">
         <v>3.2522087431724498</v>
       </c>
-      <c r="M42" s="77">
+      <c r="M42" s="72">
         <v>1.1840739351529E-2</v>
       </c>
-      <c r="N42" s="76">
+      <c r="N42" s="71">
         <v>10529359.896</v>
       </c>
-      <c r="O42" s="76">
+      <c r="O42" s="71">
         <v>65136518.001000002</v>
       </c>
-      <c r="P42" s="76">
+      <c r="P42" s="71">
         <v>1562</v>
       </c>
-      <c r="Q42" s="76">
+      <c r="Q42" s="71">
         <v>1576</v>
       </c>
-      <c r="R42" s="77">
+      <c r="R42" s="72">
         <v>-0.88832487309644703</v>
       </c>
-      <c r="S42" s="76">
+      <c r="S42" s="71">
         <v>878.96841107554405</v>
       </c>
-      <c r="T42" s="76">
+      <c r="T42" s="71">
         <v>298.74407912436499</v>
       </c>
-      <c r="U42" s="78">
+      <c r="U42" s="73">
         <v>66.011966373307004</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="62" t="s">
+    <row r="43" spans="1:21" ht="12" thickBot="1">
+      <c r="A43" s="74"/>
+      <c r="B43" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="76">
-        <v>381827.31</v>
-      </c>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="76">
+      <c r="C43" s="47"/>
+      <c r="D43" s="71">
+        <v>407271.74</v>
+      </c>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="71">
         <v>233679.13</v>
       </c>
-      <c r="H43" s="77">
-        <v>63.398122031693703</v>
-      </c>
-      <c r="I43" s="76">
-        <v>-96051.19</v>
-      </c>
-      <c r="J43" s="77">
-        <v>-25.155662647598501</v>
-      </c>
-      <c r="K43" s="76">
+      <c r="H43" s="72">
+        <v>74.286740968266997</v>
+      </c>
+      <c r="I43" s="71">
+        <v>-107805.02</v>
+      </c>
+      <c r="J43" s="72">
+        <v>-26.470046755515099</v>
+      </c>
+      <c r="K43" s="71">
         <v>-39049.980000000003</v>
       </c>
-      <c r="L43" s="77">
+      <c r="L43" s="72">
         <v>-16.710940339430401</v>
       </c>
-      <c r="M43" s="77">
-        <v>1.4596988269904401</v>
-      </c>
-      <c r="N43" s="76">
-        <v>4173342.61</v>
-      </c>
-      <c r="O43" s="76">
-        <v>27402789.190000001</v>
-      </c>
-      <c r="P43" s="76">
+      <c r="M43" s="72">
+        <v>1.7606933473461399</v>
+      </c>
+      <c r="N43" s="71">
+        <v>4198787.04</v>
+      </c>
+      <c r="O43" s="71">
+        <v>27428233.620000001</v>
+      </c>
+      <c r="P43" s="71">
         <v>246</v>
       </c>
-      <c r="Q43" s="76">
+      <c r="Q43" s="71">
         <v>323</v>
       </c>
-      <c r="R43" s="77">
+      <c r="R43" s="72">
         <v>-23.839009287925698</v>
       </c>
-      <c r="S43" s="76">
-        <v>1552.1435365853699</v>
-      </c>
-      <c r="T43" s="76">
+      <c r="S43" s="71">
+        <v>1655.5761788617899</v>
+      </c>
+      <c r="T43" s="71">
         <v>1805.1206811145501</v>
       </c>
-      <c r="U43" s="78">
-        <v>-16.298566373940002</v>
+      <c r="U43" s="73">
+        <v>-9.0327768762398204</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="62" t="s">
+    <row r="44" spans="1:21" ht="12" thickBot="1">
+      <c r="A44" s="74"/>
+      <c r="B44" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="76">
+      <c r="C44" s="47"/>
+      <c r="D44" s="71">
         <v>142804.16</v>
       </c>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="76">
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="71">
         <v>127990.85</v>
       </c>
-      <c r="H44" s="77">
+      <c r="H44" s="72">
         <v>11.573725778053699</v>
       </c>
-      <c r="I44" s="76">
+      <c r="I44" s="71">
         <v>16868.53</v>
       </c>
-      <c r="J44" s="77">
+      <c r="J44" s="72">
         <v>11.8123519650968</v>
       </c>
-      <c r="K44" s="76">
+      <c r="K44" s="71">
         <v>15657.43</v>
       </c>
-      <c r="L44" s="77">
+      <c r="L44" s="72">
         <v>12.233241673135201</v>
       </c>
-      <c r="M44" s="77">
+      <c r="M44" s="72">
         <v>7.7349858821019996E-2</v>
       </c>
-      <c r="N44" s="76">
+      <c r="N44" s="71">
         <v>1894764.1</v>
       </c>
-      <c r="O44" s="76">
+      <c r="O44" s="71">
         <v>10442991.630000001</v>
       </c>
-      <c r="P44" s="76">
+      <c r="P44" s="71">
         <v>105</v>
       </c>
-      <c r="Q44" s="76">
+      <c r="Q44" s="71">
         <v>158</v>
       </c>
-      <c r="R44" s="77">
+      <c r="R44" s="72">
         <v>-33.544303797468402</v>
       </c>
-      <c r="S44" s="76">
+      <c r="S44" s="71">
         <v>1360.0396190476199</v>
       </c>
-      <c r="T44" s="76">
+      <c r="T44" s="71">
         <v>1623.74778481013</v>
       </c>
-      <c r="U44" s="78">
+      <c r="U44" s="73">
         <v>-19.389741450853599</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="62" t="s">
+    <row r="45" spans="1:21" ht="12" thickBot="1">
+      <c r="A45" s="74"/>
+      <c r="B45" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="76">
+      <c r="C45" s="47"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="71">
         <v>828.80349999999999</v>
       </c>
-      <c r="O45" s="76">
+      <c r="O45" s="71">
         <v>-695.12810000000002</v>
       </c>
-      <c r="P45" s="79"/>
-      <c r="Q45" s="79"/>
-      <c r="R45" s="79"/>
-      <c r="S45" s="79"/>
-      <c r="T45" s="79"/>
-      <c r="U45" s="80"/>
+      <c r="P45" s="75"/>
+      <c r="Q45" s="75"/>
+      <c r="R45" s="75"/>
+      <c r="S45" s="75"/>
+      <c r="T45" s="75"/>
+      <c r="U45" s="76"/>
     </row>
-    <row r="46" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
-      <c r="B46" s="62" t="s">
+    <row r="46" spans="1:21" ht="12" thickBot="1">
+      <c r="A46" s="77"/>
+      <c r="B46" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="81">
+      <c r="C46" s="47"/>
+      <c r="D46" s="78">
         <v>6110.2564000000002</v>
       </c>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="81">
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="78">
         <v>16612.427199999998</v>
       </c>
-      <c r="H46" s="83">
+      <c r="H46" s="80">
         <v>-63.218761915778302</v>
       </c>
-      <c r="I46" s="81">
+      <c r="I46" s="78">
         <v>561.75059999999996</v>
       </c>
-      <c r="J46" s="83">
+      <c r="J46" s="80">
         <v>9.1935683746430001</v>
       </c>
-      <c r="K46" s="81">
+      <c r="K46" s="78">
         <v>2257.4077000000002</v>
       </c>
-      <c r="L46" s="83">
+      <c r="L46" s="80">
         <v>13.5886687286732</v>
       </c>
-      <c r="M46" s="83">
+      <c r="M46" s="80">
         <v>-0.75115235054793195</v>
       </c>
-      <c r="N46" s="81">
+      <c r="N46" s="78">
         <v>474810.05320000002</v>
       </c>
-      <c r="O46" s="81">
+      <c r="O46" s="78">
         <v>3975407.0095000002</v>
       </c>
-      <c r="P46" s="81">
+      <c r="P46" s="78">
         <v>13</v>
       </c>
-      <c r="Q46" s="81">
+      <c r="Q46" s="78">
         <v>15</v>
       </c>
-      <c r="R46" s="83">
+      <c r="R46" s="80">
         <v>-13.3333333333333</v>
       </c>
-      <c r="S46" s="81">
+      <c r="S46" s="78">
         <v>470.01972307692301</v>
       </c>
-      <c r="T46" s="81">
+      <c r="T46" s="78">
         <v>1740.8756800000001</v>
       </c>
-      <c r="U46" s="84">
+      <c r="U46" s="81">
         <v>-270.38353807869697</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:U4"/>
     <mergeCell ref="W1:W4"/>
@@ -58278,34 +58347,6 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58315,7 +58356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58323,7 +58364,7 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="28" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="29" customWidth="1"/>
@@ -58333,7 +58374,7 @@
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="38" t="s">
         <v>72</v>
       </c>
@@ -58359,7 +58400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -58385,7 +58426,7 @@
         <v>0.223060913435387</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -58411,7 +58452,7 @@
         <v>0.21893200350164199</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -58437,7 +58478,7 @@
         <v>0.26619173228146598</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -58463,7 +58504,7 @@
         <v>0.225304060784284</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -58489,7 +58530,7 @@
         <v>0.166042975744634</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -58515,7 +58556,7 @@
         <v>0.27172854985539702</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -58541,7 +58582,7 @@
         <v>0.16785467925919201</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -58567,7 +58608,7 @@
         <v>0.171368447883082</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -58593,7 +58634,7 @@
         <v>-2.5414731094967901E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -58619,7 +58660,7 @@
         <v>6.7487645096920401E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -58645,7 +58686,7 @@
         <v>0.13494366703736799</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -58671,7 +58712,7 @@
         <v>1.33283754610601E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -58697,7 +58738,7 @@
         <v>8.1469035775995402E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -58723,7 +58764,7 @@
         <v>8.1411849909157896E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -58749,7 +58790,7 @@
         <v>4.7822766828748697E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -58775,7 +58816,7 @@
         <v>5.6488074761236698E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -58801,7 +58842,7 @@
         <v>0.150163335728594</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -58827,7 +58868,7 @@
         <v>8.2618382313897898E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -58853,7 +58894,7 @@
         <v>0.15938521369244199</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -58879,7 +58920,7 @@
         <v>0.25014376759212698</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="37">
         <v>21</v>
       </c>
@@ -58905,7 +58946,7 @@
         <v>3.0323209104385601E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -58931,7 +58972,7 @@
         <v>0.151815102253861</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -58957,7 +58998,7 @@
         <v>0.105561058651026</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -58983,7 +59024,7 @@
         <v>6.2466156588792801E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="37">
         <v>25</v>
       </c>
@@ -59009,7 +59050,7 @@
         <v>0.24954220593766899</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="37">
         <v>26</v>
       </c>
@@ -59035,7 +59076,7 @@
         <v>1.08348378020382E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="37">
         <v>27</v>
       </c>
@@ -59061,7 +59102,7 @@
         <v>9.9381994982177202E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="37">
         <v>28</v>
       </c>
@@ -59087,7 +59128,7 @@
         <v>4.7948847959049301E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="37">
         <v>29</v>
       </c>
@@ -59113,7 +59154,7 @@
         <v>8.1283137328928799E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="30">
         <v>30</v>
       </c>
@@ -59139,7 +59180,7 @@
         <v>9.1935655336410696E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="30">
         <v>31</v>
       </c>
@@ -59165,7 +59206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="30"/>
       <c r="B33" s="39">
         <v>9101</v>
@@ -59189,7 +59230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="30"/>
       <c r="B34" s="33">
         <v>70</v>
@@ -59207,7 +59248,7 @@
       <c r="G34" s="30"/>
       <c r="H34" s="30"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="30"/>
       <c r="B35" s="33">
         <v>71</v>
@@ -59225,7 +59266,7 @@
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="30"/>
       <c r="B36" s="33">
         <v>72</v>
@@ -59243,7 +59284,7 @@
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="30"/>
       <c r="B37" s="33">
         <v>73</v>
@@ -59261,7 +59302,7 @@
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="30"/>
       <c r="B38" s="33">
         <v>77</v>
@@ -59279,7 +59320,7 @@
       <c r="G38" s="30"/>
       <c r="H38" s="30"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="30"/>
       <c r="B39" s="33">
         <v>78</v>
@@ -59297,7 +59338,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="30"/>
       <c r="B40" s="33">
         <v>74</v>
@@ -59315,7 +59356,7 @@
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="30"/>
       <c r="B41" s="31"/>
       <c r="C41" s="30"/>
@@ -59325,7 +59366,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="30"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="30"/>
       <c r="B42" s="31"/>
       <c r="C42" s="30"/>
@@ -59335,7 +59376,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="30"/>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
@@ -59345,7 +59386,7 @@
       <c r="G43" s="31"/>
       <c r="H43" s="31"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="30"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
@@ -59355,7 +59396,7 @@
       <c r="G44" s="31"/>
       <c r="H44" s="31"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="30"/>
       <c r="B45" s="31"/>
       <c r="C45" s="30"/>
@@ -59365,7 +59406,7 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="30"/>
       <c r="B46" s="31"/>
       <c r="C46" s="30"/>
@@ -59375,7 +59416,7 @@
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="30"/>
       <c r="B47" s="31"/>
       <c r="C47" s="30"/>
@@ -59385,7 +59426,7 @@
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="30"/>
       <c r="B48" s="31"/>
       <c r="C48" s="30"/>
@@ -59395,7 +59436,7 @@
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="30"/>
       <c r="B49" s="31"/>
       <c r="C49" s="30"/>
@@ -59405,7 +59446,7 @@
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="30"/>
       <c r="B50" s="31"/>
       <c r="C50" s="30"/>
@@ -59415,7 +59456,7 @@
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="30"/>
       <c r="B51" s="31"/>
       <c r="C51" s="30"/>
@@ -59425,7 +59466,7 @@
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="30"/>
       <c r="B52" s="31"/>
       <c r="C52" s="30"/>
@@ -59435,7 +59476,7 @@
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="30"/>
       <c r="B53" s="31"/>
       <c r="C53" s="30"/>
@@ -59445,7 +59486,7 @@
       <c r="G53" s="30"/>
       <c r="H53" s="30"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="30"/>
       <c r="B54" s="31"/>
       <c r="C54" s="30"/>
@@ -59455,7 +59496,7 @@
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="30"/>
       <c r="B55" s="31"/>
       <c r="C55" s="30"/>
@@ -59465,7 +59506,7 @@
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="30"/>
       <c r="B56" s="31"/>
       <c r="C56" s="30"/>
@@ -59475,7 +59516,7 @@
       <c r="G56" s="30"/>
       <c r="H56" s="30"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="30"/>
       <c r="B57" s="31"/>
       <c r="C57" s="30"/>
@@ -59485,7 +59526,7 @@
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="30"/>
       <c r="B58" s="31"/>
       <c r="C58" s="30"/>
@@ -59495,7 +59536,7 @@
       <c r="G58" s="30"/>
       <c r="H58" s="30"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="30"/>
       <c r="B59" s="31"/>
       <c r="C59" s="30"/>
@@ -59505,7 +59546,7 @@
       <c r="G59" s="30"/>
       <c r="H59" s="30"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="30"/>
       <c r="B60" s="31"/>
       <c r="C60" s="30"/>
@@ -59515,7 +59556,7 @@
       <c r="G60" s="30"/>
       <c r="H60" s="30"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="30"/>
       <c r="B61" s="31"/>
       <c r="C61" s="30"/>
@@ -59525,7 +59566,7 @@
       <c r="G61" s="30"/>
       <c r="H61" s="30"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="30"/>
       <c r="B62" s="31"/>
       <c r="C62" s="30"/>
@@ -59535,7 +59576,7 @@
       <c r="G62" s="30"/>
       <c r="H62" s="30"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="30"/>
       <c r="B63" s="31"/>
       <c r="C63" s="30"/>
